--- a/src/public/Mtz_Hitos_VF.xlsx
+++ b/src/public/Mtz_Hitos_VF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcmendoza/Desktop/Apps/j4data/kratia/4jback/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343280D8-D35F-EE4D-A67B-A47A481FDEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F4B62E-21CE-C24F-830B-0DE62169B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="3" xr2:uid="{4B335A1F-C098-4E51-90DA-5E7091248082}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="2" xr2:uid="{4B335A1F-C098-4E51-90DA-5E7091248082}"/>
   </bookViews>
   <sheets>
     <sheet name="Caracterización_Hitos" sheetId="11" r:id="rId1"/>
@@ -18,14 +18,11 @@
     <sheet name="main" sheetId="13" r:id="rId3"/>
     <sheet name="geo" sheetId="12" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Caracterización_Hitos!$C$9:$H$281</definedName>
-    <definedName name="aswq">[1]!ODST1[ODS]</definedName>
-    <definedName name="ODS">[1]!ODST1[ODS]</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">main!$A$1:$M$13</definedName>
+    <definedName name="aswq">#REF!</definedName>
+    <definedName name="ODS">#REF!</definedName>
     <definedName name="ODS_1" localSheetId="0">#REF!</definedName>
     <definedName name="ODS_1">#REF!</definedName>
     <definedName name="ODS_10" localSheetId="0">#REF!</definedName>
@@ -60,8 +57,8 @@
     <definedName name="ODS_8">#REF!</definedName>
     <definedName name="ODS_9" localSheetId="0">#REF!</definedName>
     <definedName name="ODS_9">#REF!</definedName>
-    <definedName name="PACC">[1]!PACCT1[Sectores Estrategicos]</definedName>
-    <definedName name="PIDM">[1]!PIDMT[LINEA]</definedName>
+    <definedName name="PACC">#REF!</definedName>
+    <definedName name="PIDM">#REF!</definedName>
     <definedName name="PIDM_1" localSheetId="0">#REF!</definedName>
     <definedName name="PIDM_1">#REF!</definedName>
     <definedName name="PIDM_2" localSheetId="0">#REF!</definedName>
@@ -72,7 +69,7 @@
     <definedName name="PIDM_4">#REF!</definedName>
     <definedName name="PIDM_5" localSheetId="0">#REF!</definedName>
     <definedName name="PIDM_5">#REF!</definedName>
-    <definedName name="PND">[1]!PNDT[DIMENSIONES]</definedName>
+    <definedName name="PND">#REF!</definedName>
     <definedName name="PND_10" localSheetId="0">#REF!</definedName>
     <definedName name="PND_10">#REF!</definedName>
     <definedName name="PND_11" localSheetId="0">#REF!</definedName>
@@ -171,65 +168,65 @@
     <definedName name="PND_8">#REF!</definedName>
     <definedName name="PND_9" localSheetId="0">#REF!</definedName>
     <definedName name="PND_9">#REF!</definedName>
-    <definedName name="POT">[1]!POTT[SISTEMAS]</definedName>
-    <definedName name="POT_1">[1]!POTT1[POT_1]</definedName>
-    <definedName name="POT_10">[1]!POTT10[POT_10]</definedName>
-    <definedName name="POT_11">[1]!POTT11[POT_11]</definedName>
-    <definedName name="POT_12">[1]!Tabla59[POT_12]</definedName>
-    <definedName name="POT_13">[1]!Tabla60[POT_13]</definedName>
-    <definedName name="POT_14">[1]!Tabla61[POT_14]</definedName>
-    <definedName name="POT_15">[1]!Tabla62[POT_15]</definedName>
-    <definedName name="POT_16">[1]!Tabla63[POT_16]</definedName>
-    <definedName name="POT_17">[1]!Tabla64[POT_17]</definedName>
-    <definedName name="POT_18">[1]!Tabla65[POT_18]</definedName>
-    <definedName name="POT_19">[1]!Tabla66[POT_19]</definedName>
-    <definedName name="POT_2">[1]!POTT2[POT_2]</definedName>
-    <definedName name="POT_20">[1]!Tabla67[POT_20]</definedName>
-    <definedName name="POT_21">[1]!Tabla68[POT_21]</definedName>
-    <definedName name="POT_22">[1]!Tabla69[POT_22]</definedName>
-    <definedName name="POT_23">[1]!Tabla70[POT_23]</definedName>
-    <definedName name="POT_24">[1]!Tabla71[POT_24]</definedName>
-    <definedName name="POT_25">[1]!Tabla72[POT_25]</definedName>
-    <definedName name="POT_26">[1]!Tabla73[POT_26]</definedName>
-    <definedName name="POT_27">[1]!Tabla76[POT_27]</definedName>
-    <definedName name="POT_28">[1]!Tabla77[POT_28]</definedName>
-    <definedName name="POT_29">[1]!Tabla78[POT_29]</definedName>
-    <definedName name="POT_3">[1]!POTT3[POT_3]</definedName>
-    <definedName name="POT_30">[1]!Tabla79[POT_30]</definedName>
-    <definedName name="POT_31">[1]!Tabla80[POT_31]</definedName>
-    <definedName name="POT_32">[1]!Tabla81[POT_32]</definedName>
-    <definedName name="POT_33">[1]!Tabla82[POT_33]</definedName>
-    <definedName name="POT_34">[1]!Tabla83[POT_34]</definedName>
-    <definedName name="POT_35">[1]!Tabla84[POT_35]</definedName>
-    <definedName name="POT_36">[1]!Tabla85[POT_36]</definedName>
-    <definedName name="POT_37">[1]!Tabla86[Columna1]</definedName>
-    <definedName name="POT_38">[1]!Tabla87[POT_38]</definedName>
-    <definedName name="POT_39">[1]!Tabla88[POT_39]</definedName>
-    <definedName name="POT_4">[1]!POTT4[POT_4]</definedName>
-    <definedName name="POT_40">[1]!Tabla89[POT_40]</definedName>
-    <definedName name="POT_41">[1]!Tabla90[POT_41]</definedName>
-    <definedName name="POT_42">[1]!Tabla91[POT_42]</definedName>
-    <definedName name="POT_43">[1]!Tabla92[POT_43]</definedName>
-    <definedName name="POT_44">[1]!Tabla93[POT_44]</definedName>
-    <definedName name="POT_45">[1]!Tabla94[POT_45]</definedName>
-    <definedName name="POT_46">[1]!Tabla95[POT_46]</definedName>
-    <definedName name="POT_47">[1]!Tabla96[POT_47]</definedName>
-    <definedName name="POT_48">[1]!Tabla97[POT_48]</definedName>
-    <definedName name="POT_49">[1]!Tabla98[POT_49]</definedName>
-    <definedName name="POT_5">[1]!POTT5[POT_5]</definedName>
-    <definedName name="POT_50">[1]!Tabla99[POT_50]</definedName>
-    <definedName name="POT_51">[1]!Tabla100[POT_51]</definedName>
-    <definedName name="POT_52">[1]!Tabla101[POT_52]</definedName>
-    <definedName name="POT_53">[1]!Tabla102[POT_53]</definedName>
-    <definedName name="POT_54">[1]!Tabla103[POT_54]</definedName>
-    <definedName name="POT_55">[1]!Tabla104[POT_55]</definedName>
-    <definedName name="POT_56">[1]!Tabla105[POT_56]</definedName>
-    <definedName name="POT_57">[1]!Tabla106[POT_57]</definedName>
-    <definedName name="POT_58">[1]!Tabla107[POT_58]</definedName>
-    <definedName name="POT_6">[1]!POTT6[POT_6]</definedName>
-    <definedName name="POT_7">[1]!POTT7[POT_7]</definedName>
-    <definedName name="POT_8">[1]!POTT8[POT_8]</definedName>
-    <definedName name="POT_9">[1]!POTT9[POT_9]</definedName>
+    <definedName name="POT">#REF!</definedName>
+    <definedName name="POT_1">#REF!</definedName>
+    <definedName name="POT_10">#REF!</definedName>
+    <definedName name="POT_11">#REF!</definedName>
+    <definedName name="POT_12">#REF!</definedName>
+    <definedName name="POT_13">#REF!</definedName>
+    <definedName name="POT_14">#REF!</definedName>
+    <definedName name="POT_15">#REF!</definedName>
+    <definedName name="POT_16">#REF!</definedName>
+    <definedName name="POT_17">#REF!</definedName>
+    <definedName name="POT_18">#REF!</definedName>
+    <definedName name="POT_19">#REF!</definedName>
+    <definedName name="POT_2">#REF!</definedName>
+    <definedName name="POT_20">#REF!</definedName>
+    <definedName name="POT_21">#REF!</definedName>
+    <definedName name="POT_22">#REF!</definedName>
+    <definedName name="POT_23">#REF!</definedName>
+    <definedName name="POT_24">#REF!</definedName>
+    <definedName name="POT_25">#REF!</definedName>
+    <definedName name="POT_26">#REF!</definedName>
+    <definedName name="POT_27">#REF!</definedName>
+    <definedName name="POT_28">#REF!</definedName>
+    <definedName name="POT_29">#REF!</definedName>
+    <definedName name="POT_3">#REF!</definedName>
+    <definedName name="POT_30">#REF!</definedName>
+    <definedName name="POT_31">#REF!</definedName>
+    <definedName name="POT_32">#REF!</definedName>
+    <definedName name="POT_33">#REF!</definedName>
+    <definedName name="POT_34">#REF!</definedName>
+    <definedName name="POT_35">#REF!</definedName>
+    <definedName name="POT_36">#REF!</definedName>
+    <definedName name="POT_37">#REF!</definedName>
+    <definedName name="POT_38">#REF!</definedName>
+    <definedName name="POT_39">#REF!</definedName>
+    <definedName name="POT_4">#REF!</definedName>
+    <definedName name="POT_40">#REF!</definedName>
+    <definedName name="POT_41">#REF!</definedName>
+    <definedName name="POT_42">#REF!</definedName>
+    <definedName name="POT_43">#REF!</definedName>
+    <definedName name="POT_44">#REF!</definedName>
+    <definedName name="POT_45">#REF!</definedName>
+    <definedName name="POT_46">#REF!</definedName>
+    <definedName name="POT_47">#REF!</definedName>
+    <definedName name="POT_48">#REF!</definedName>
+    <definedName name="POT_49">#REF!</definedName>
+    <definedName name="POT_5">#REF!</definedName>
+    <definedName name="POT_50">#REF!</definedName>
+    <definedName name="POT_51">#REF!</definedName>
+    <definedName name="POT_52">#REF!</definedName>
+    <definedName name="POT_53">#REF!</definedName>
+    <definedName name="POT_54">#REF!</definedName>
+    <definedName name="POT_55">#REF!</definedName>
+    <definedName name="POT_56">#REF!</definedName>
+    <definedName name="POT_57">#REF!</definedName>
+    <definedName name="POT_58">#REF!</definedName>
+    <definedName name="POT_6">#REF!</definedName>
+    <definedName name="POT_7">#REF!</definedName>
+    <definedName name="POT_8">#REF!</definedName>
+    <definedName name="POT_9">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -252,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="108">
   <si>
     <t>Sí</t>
   </si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>id_hito</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -943,7 +943,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,21 +1044,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1112,8 +1097,7 @@
     <xf numFmtId="49" fontId="8" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,6 +1120,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,82 +1219,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="CONSOLIDADO"/>
-      <sheetName val="DESARROLLO SOSTENIBLE (ODS)"/>
-      <sheetName val="P. INT. DLLO. METRO. (PIDM)I"/>
-      <sheetName val="P. ORD. TERRITORIAL (POT)"/>
-      <sheetName val="P.A. CAMBIO CLIMATICO (PACC)"/>
-      <sheetName val="P. DLLO. NAL (PDN)"/>
-      <sheetName val="P. DLLO. LOCAL (PDL)"/>
-      <sheetName val="PG"/>
-      <sheetName val="PDL"/>
-      <sheetName val="PACC"/>
-      <sheetName val="POT"/>
-      <sheetName val="ODS"/>
-      <sheetName val="PIDM"/>
-      <sheetName val="PND"/>
-      <sheetName val="MATRIZ DE INSTRUMENTOS FINAL ar"/>
-      <sheetName val="Listas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
-        <row r="123">
-          <cell r="AH123" t="str">
-            <v>001 Popular</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Caracterización_Seg_Hitos"/>
-      <sheetName val="Caracterización_Seg_Hitos (2)"/>
-      <sheetName val="Proyectos estratégicos"/>
-      <sheetName val="Sellos"/>
-      <sheetName val="Listas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1639,7 +1562,7 @@
     <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" style="2" customWidth="1"/>
     <col min="12" max="33" width="11" style="2" customWidth="1"/>
-    <col min="34" max="34" width="23.33203125" style="45" customWidth="1"/>
+    <col min="34" max="34" width="23.33203125" style="40" customWidth="1"/>
     <col min="35" max="35" width="39" style="2" customWidth="1"/>
     <col min="36" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="5.6640625" style="13" customWidth="1"/>
@@ -1680,7 +1603,7 @@
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
-      <c r="AH1" s="41"/>
+      <c r="AH1" s="36"/>
       <c r="AI1" s="7"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
@@ -1719,7 +1642,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
-      <c r="AH2" s="42"/>
+      <c r="AH2" s="37"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -1760,7 +1683,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
-      <c r="AH3" s="43"/>
+      <c r="AH3" s="38"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="10"/>
@@ -1801,7 +1724,7 @@
       <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
-      <c r="AH4" s="44"/>
+      <c r="AH4" s="39"/>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="10"/>
@@ -1842,7 +1765,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
-      <c r="AH5" s="43"/>
+      <c r="AH5" s="38"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="11"/>
@@ -1881,7 +1804,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="42"/>
+      <c r="AH6" s="37"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
@@ -1892,47 +1815,47 @@
     </row>
     <row r="8" spans="1:37" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39" t="s">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40" t="s">
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="36" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="66" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2031,10 +1954,10 @@
       <c r="AG9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH9" s="47" t="s">
+      <c r="AH9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="37"/>
+      <c r="AI9" s="67"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -2090,7 +2013,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="43" t="s">
         <v>61</v>
       </c>
       <c r="AI10" s="31" t="s">
@@ -2151,7 +2074,7 @@
       <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
-      <c r="AH11" s="48" t="s">
+      <c r="AH11" s="43" t="s">
         <v>61</v>
       </c>
       <c r="AI11" s="31" t="s">
@@ -2212,10 +2135,10 @@
       <c r="AG12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AH12" s="48" t="s">
+      <c r="AH12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AI12" s="52" t="s">
+      <c r="AI12" s="47" t="s">
         <v>62</v>
       </c>
       <c r="AJ12" s="4"/>
@@ -2225,9 +2148,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E13,[2]Listas!#REF!,2,0),"")</f>
-        <v/>
+      <c r="F13" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
@@ -2256,7 +2178,7 @@
       <c r="AE13" s="23"/>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23"/>
-      <c r="AH13" s="49"/>
+      <c r="AH13" s="44"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="4"/>
     </row>
@@ -2265,9 +2187,8 @@
       <c r="C14" s="23"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,[2]Listas!#REF!,2,0),"")</f>
-        <v/>
+      <c r="F14" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
@@ -2296,7 +2217,7 @@
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23"/>
-      <c r="AH14" s="49"/>
+      <c r="AH14" s="44"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="4"/>
     </row>
@@ -2305,9 +2226,8 @@
       <c r="C15" s="23"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E15,[2]Listas!#REF!,2,0),"")</f>
-        <v/>
+      <c r="F15" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
@@ -2336,7 +2256,7 @@
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
       <c r="AG15" s="23"/>
-      <c r="AH15" s="49"/>
+      <c r="AH15" s="44"/>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="5"/>
     </row>
@@ -2345,9 +2265,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,[2]Listas!#REF!,2,0),"")</f>
-        <v/>
+      <c r="F16" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
@@ -2376,7 +2295,7 @@
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
-      <c r="AH16" s="49"/>
+      <c r="AH16" s="44"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="4"/>
     </row>
@@ -2385,9 +2304,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E17,[2]Listas!#REF!,2,0),"")</f>
-        <v/>
+      <c r="F17" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
@@ -2416,7 +2334,7 @@
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23"/>
-      <c r="AH17" s="49"/>
+      <c r="AH17" s="44"/>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="4"/>
     </row>
@@ -2453,7 +2371,7 @@
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
-      <c r="AH18" s="49"/>
+      <c r="AH18" s="44"/>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="4"/>
     </row>
@@ -2490,7 +2408,7 @@
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
-      <c r="AH19" s="49"/>
+      <c r="AH19" s="44"/>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="4"/>
     </row>
@@ -2527,7 +2445,7 @@
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
-      <c r="AH20" s="49"/>
+      <c r="AH20" s="44"/>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="4"/>
     </row>
@@ -2564,7 +2482,7 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
       <c r="AG21" s="23"/>
-      <c r="AH21" s="49"/>
+      <c r="AH21" s="44"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="4"/>
     </row>
@@ -2601,7 +2519,7 @@
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
-      <c r="AH22" s="49"/>
+      <c r="AH22" s="44"/>
       <c r="AI22" s="22"/>
       <c r="AJ22" s="4"/>
     </row>
@@ -2638,7 +2556,7 @@
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
-      <c r="AH23" s="49"/>
+      <c r="AH23" s="44"/>
       <c r="AI23" s="22"/>
       <c r="AJ23" s="4"/>
     </row>
@@ -2675,7 +2593,7 @@
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
-      <c r="AH24" s="49"/>
+      <c r="AH24" s="44"/>
       <c r="AI24" s="22"/>
       <c r="AJ24" s="4"/>
     </row>
@@ -2712,7 +2630,7 @@
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
-      <c r="AH25" s="49"/>
+      <c r="AH25" s="44"/>
       <c r="AI25" s="22"/>
       <c r="AJ25" s="4"/>
     </row>
@@ -2749,7 +2667,7 @@
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="49"/>
+      <c r="AH26" s="44"/>
       <c r="AI26" s="22"/>
       <c r="AJ26" s="4"/>
     </row>
@@ -2786,7 +2704,7 @@
       <c r="AE27" s="23"/>
       <c r="AF27" s="23"/>
       <c r="AG27" s="23"/>
-      <c r="AH27" s="49"/>
+      <c r="AH27" s="44"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="4"/>
     </row>
@@ -2823,7 +2741,7 @@
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
-      <c r="AH28" s="49"/>
+      <c r="AH28" s="44"/>
       <c r="AI28" s="22"/>
       <c r="AJ28" s="4"/>
     </row>
@@ -2860,7 +2778,7 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="49"/>
+      <c r="AH29" s="44"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="4"/>
     </row>
@@ -2897,7 +2815,7 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="49"/>
+      <c r="AH30" s="44"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="5"/>
     </row>
@@ -2934,7 +2852,7 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="49"/>
+      <c r="AH31" s="44"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="4"/>
     </row>
@@ -2971,7 +2889,7 @@
       <c r="AE32" s="23"/>
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
-      <c r="AH32" s="49"/>
+      <c r="AH32" s="44"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="4"/>
     </row>
@@ -3008,7 +2926,7 @@
       <c r="AE33" s="23"/>
       <c r="AF33" s="23"/>
       <c r="AG33" s="23"/>
-      <c r="AH33" s="49"/>
+      <c r="AH33" s="44"/>
       <c r="AI33" s="22"/>
       <c r="AJ33" s="4"/>
     </row>
@@ -3045,7 +2963,7 @@
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
       <c r="AG34" s="23"/>
-      <c r="AH34" s="49"/>
+      <c r="AH34" s="44"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="5"/>
     </row>
@@ -3082,7 +3000,7 @@
       <c r="AE35" s="23"/>
       <c r="AF35" s="23"/>
       <c r="AG35" s="23"/>
-      <c r="AH35" s="49"/>
+      <c r="AH35" s="44"/>
       <c r="AI35" s="22"/>
       <c r="AJ35" s="4"/>
     </row>
@@ -3119,7 +3037,7 @@
       <c r="AE36" s="23"/>
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
-      <c r="AH36" s="49"/>
+      <c r="AH36" s="44"/>
       <c r="AI36" s="22"/>
       <c r="AJ36" s="4"/>
     </row>
@@ -3156,7 +3074,7 @@
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
       <c r="AG37" s="23"/>
-      <c r="AH37" s="49"/>
+      <c r="AH37" s="44"/>
       <c r="AI37" s="22"/>
       <c r="AJ37" s="4"/>
     </row>
@@ -3193,7 +3111,7 @@
       <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="23"/>
-      <c r="AH38" s="49"/>
+      <c r="AH38" s="44"/>
       <c r="AI38" s="22"/>
       <c r="AJ38" s="5"/>
     </row>
@@ -3230,7 +3148,7 @@
       <c r="AE39" s="23"/>
       <c r="AF39" s="23"/>
       <c r="AG39" s="23"/>
-      <c r="AH39" s="49"/>
+      <c r="AH39" s="44"/>
       <c r="AI39" s="22"/>
       <c r="AJ39" s="5"/>
     </row>
@@ -3267,7 +3185,7 @@
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
       <c r="AG40" s="23"/>
-      <c r="AH40" s="49"/>
+      <c r="AH40" s="44"/>
       <c r="AI40" s="22"/>
       <c r="AJ40" s="4"/>
     </row>
@@ -3304,7 +3222,7 @@
       <c r="AE41" s="23"/>
       <c r="AF41" s="23"/>
       <c r="AG41" s="23"/>
-      <c r="AH41" s="49"/>
+      <c r="AH41" s="44"/>
       <c r="AI41" s="22"/>
       <c r="AJ41" s="4"/>
     </row>
@@ -3341,7 +3259,7 @@
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
       <c r="AG42" s="23"/>
-      <c r="AH42" s="49"/>
+      <c r="AH42" s="44"/>
       <c r="AI42" s="22"/>
       <c r="AJ42" s="4"/>
     </row>
@@ -3378,7 +3296,7 @@
       <c r="AE43" s="23"/>
       <c r="AF43" s="23"/>
       <c r="AG43" s="23"/>
-      <c r="AH43" s="49"/>
+      <c r="AH43" s="44"/>
       <c r="AI43" s="22"/>
       <c r="AJ43" s="4"/>
     </row>
@@ -3415,7 +3333,7 @@
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="23"/>
-      <c r="AH44" s="49"/>
+      <c r="AH44" s="44"/>
       <c r="AI44" s="22"/>
       <c r="AJ44" s="4"/>
     </row>
@@ -3452,7 +3370,7 @@
       <c r="AE45" s="23"/>
       <c r="AF45" s="23"/>
       <c r="AG45" s="23"/>
-      <c r="AH45" s="49"/>
+      <c r="AH45" s="44"/>
       <c r="AI45" s="22"/>
       <c r="AJ45" s="4"/>
     </row>
@@ -3489,7 +3407,7 @@
       <c r="AE46" s="23"/>
       <c r="AF46" s="23"/>
       <c r="AG46" s="23"/>
-      <c r="AH46" s="49"/>
+      <c r="AH46" s="44"/>
       <c r="AI46" s="22"/>
       <c r="AJ46" s="4"/>
     </row>
@@ -3526,7 +3444,7 @@
       <c r="AE47" s="23"/>
       <c r="AF47" s="23"/>
       <c r="AG47" s="23"/>
-      <c r="AH47" s="49"/>
+      <c r="AH47" s="44"/>
       <c r="AI47" s="22"/>
       <c r="AJ47" s="4"/>
     </row>
@@ -3563,7 +3481,7 @@
       <c r="AE48" s="23"/>
       <c r="AF48" s="23"/>
       <c r="AG48" s="23"/>
-      <c r="AH48" s="49"/>
+      <c r="AH48" s="44"/>
       <c r="AI48" s="22"/>
       <c r="AJ48" s="4"/>
     </row>
@@ -3600,7 +3518,7 @@
       <c r="AE49" s="23"/>
       <c r="AF49" s="23"/>
       <c r="AG49" s="23"/>
-      <c r="AH49" s="49"/>
+      <c r="AH49" s="44"/>
       <c r="AI49" s="22"/>
       <c r="AJ49" s="4"/>
     </row>
@@ -3637,7 +3555,7 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="23"/>
       <c r="AG50" s="23"/>
-      <c r="AH50" s="49"/>
+      <c r="AH50" s="44"/>
       <c r="AI50" s="22"/>
       <c r="AJ50" s="4"/>
     </row>
@@ -3674,7 +3592,7 @@
       <c r="AE51" s="23"/>
       <c r="AF51" s="23"/>
       <c r="AG51" s="23"/>
-      <c r="AH51" s="49"/>
+      <c r="AH51" s="44"/>
       <c r="AI51" s="22"/>
       <c r="AJ51" s="4"/>
     </row>
@@ -3711,7 +3629,7 @@
       <c r="AE52" s="23"/>
       <c r="AF52" s="23"/>
       <c r="AG52" s="23"/>
-      <c r="AH52" s="49"/>
+      <c r="AH52" s="44"/>
       <c r="AI52" s="22"/>
       <c r="AJ52" s="4"/>
     </row>
@@ -3748,7 +3666,7 @@
       <c r="AE53" s="23"/>
       <c r="AF53" s="23"/>
       <c r="AG53" s="23"/>
-      <c r="AH53" s="49"/>
+      <c r="AH53" s="44"/>
       <c r="AI53" s="22"/>
       <c r="AJ53" s="4"/>
     </row>
@@ -3785,7 +3703,7 @@
       <c r="AE54" s="23"/>
       <c r="AF54" s="23"/>
       <c r="AG54" s="23"/>
-      <c r="AH54" s="49"/>
+      <c r="AH54" s="44"/>
       <c r="AI54" s="22"/>
       <c r="AJ54" s="4"/>
     </row>
@@ -3822,7 +3740,7 @@
       <c r="AE55" s="23"/>
       <c r="AF55" s="23"/>
       <c r="AG55" s="23"/>
-      <c r="AH55" s="49"/>
+      <c r="AH55" s="44"/>
       <c r="AI55" s="22"/>
       <c r="AJ55" s="4"/>
     </row>
@@ -3859,7 +3777,7 @@
       <c r="AE56" s="23"/>
       <c r="AF56" s="23"/>
       <c r="AG56" s="23"/>
-      <c r="AH56" s="49"/>
+      <c r="AH56" s="44"/>
       <c r="AI56" s="22"/>
       <c r="AJ56" s="4"/>
     </row>
@@ -3896,7 +3814,7 @@
       <c r="AE57" s="23"/>
       <c r="AF57" s="23"/>
       <c r="AG57" s="23"/>
-      <c r="AH57" s="49"/>
+      <c r="AH57" s="44"/>
       <c r="AI57" s="22"/>
       <c r="AJ57" s="4"/>
     </row>
@@ -3933,7 +3851,7 @@
       <c r="AE58" s="23"/>
       <c r="AF58" s="23"/>
       <c r="AG58" s="23"/>
-      <c r="AH58" s="49"/>
+      <c r="AH58" s="44"/>
       <c r="AI58" s="22"/>
       <c r="AJ58" s="4"/>
     </row>
@@ -3970,7 +3888,7 @@
       <c r="AE59" s="23"/>
       <c r="AF59" s="23"/>
       <c r="AG59" s="23"/>
-      <c r="AH59" s="49"/>
+      <c r="AH59" s="44"/>
       <c r="AI59" s="22"/>
       <c r="AJ59" s="5"/>
     </row>
@@ -4007,7 +3925,7 @@
       <c r="AE60" s="23"/>
       <c r="AF60" s="23"/>
       <c r="AG60" s="23"/>
-      <c r="AH60" s="49"/>
+      <c r="AH60" s="44"/>
       <c r="AI60" s="22"/>
       <c r="AJ60" s="4"/>
     </row>
@@ -4044,7 +3962,7 @@
       <c r="AE61" s="23"/>
       <c r="AF61" s="23"/>
       <c r="AG61" s="23"/>
-      <c r="AH61" s="49"/>
+      <c r="AH61" s="44"/>
       <c r="AI61" s="22"/>
       <c r="AJ61" s="5"/>
     </row>
@@ -4081,7 +3999,7 @@
       <c r="AE62" s="23"/>
       <c r="AF62" s="23"/>
       <c r="AG62" s="23"/>
-      <c r="AH62" s="49"/>
+      <c r="AH62" s="44"/>
       <c r="AI62" s="22"/>
       <c r="AJ62" s="5"/>
     </row>
@@ -4118,7 +4036,7 @@
       <c r="AE63" s="23"/>
       <c r="AF63" s="23"/>
       <c r="AG63" s="23"/>
-      <c r="AH63" s="49"/>
+      <c r="AH63" s="44"/>
       <c r="AI63" s="22"/>
       <c r="AJ63" s="4"/>
     </row>
@@ -4155,7 +4073,7 @@
       <c r="AE64" s="23"/>
       <c r="AF64" s="23"/>
       <c r="AG64" s="23"/>
-      <c r="AH64" s="49"/>
+      <c r="AH64" s="44"/>
       <c r="AI64" s="22"/>
       <c r="AJ64" s="5"/>
     </row>
@@ -4192,7 +4110,7 @@
       <c r="AE65" s="23"/>
       <c r="AF65" s="23"/>
       <c r="AG65" s="23"/>
-      <c r="AH65" s="49"/>
+      <c r="AH65" s="44"/>
       <c r="AI65" s="22"/>
       <c r="AJ65" s="4"/>
     </row>
@@ -4229,7 +4147,7 @@
       <c r="AE66" s="23"/>
       <c r="AF66" s="23"/>
       <c r="AG66" s="23"/>
-      <c r="AH66" s="49"/>
+      <c r="AH66" s="44"/>
       <c r="AI66" s="22"/>
       <c r="AJ66" s="4"/>
     </row>
@@ -4266,7 +4184,7 @@
       <c r="AE67" s="23"/>
       <c r="AF67" s="23"/>
       <c r="AG67" s="23"/>
-      <c r="AH67" s="49"/>
+      <c r="AH67" s="44"/>
       <c r="AI67" s="22"/>
       <c r="AJ67" s="4"/>
     </row>
@@ -4303,7 +4221,7 @@
       <c r="AE68" s="23"/>
       <c r="AF68" s="23"/>
       <c r="AG68" s="23"/>
-      <c r="AH68" s="49"/>
+      <c r="AH68" s="44"/>
       <c r="AI68" s="22"/>
       <c r="AJ68" s="4"/>
     </row>
@@ -4340,7 +4258,7 @@
       <c r="AE69" s="23"/>
       <c r="AF69" s="23"/>
       <c r="AG69" s="23"/>
-      <c r="AH69" s="49"/>
+      <c r="AH69" s="44"/>
       <c r="AI69" s="22"/>
       <c r="AJ69" s="4"/>
     </row>
@@ -4377,7 +4295,7 @@
       <c r="AE70" s="23"/>
       <c r="AF70" s="23"/>
       <c r="AG70" s="23"/>
-      <c r="AH70" s="49"/>
+      <c r="AH70" s="44"/>
       <c r="AI70" s="22"/>
       <c r="AJ70" s="4"/>
     </row>
@@ -4414,7 +4332,7 @@
       <c r="AE71" s="23"/>
       <c r="AF71" s="23"/>
       <c r="AG71" s="23"/>
-      <c r="AH71" s="49"/>
+      <c r="AH71" s="44"/>
       <c r="AI71" s="22"/>
       <c r="AJ71" s="4"/>
     </row>
@@ -4451,7 +4369,7 @@
       <c r="AE72" s="23"/>
       <c r="AF72" s="23"/>
       <c r="AG72" s="23"/>
-      <c r="AH72" s="49"/>
+      <c r="AH72" s="44"/>
       <c r="AI72" s="22"/>
       <c r="AJ72" s="4"/>
     </row>
@@ -4488,7 +4406,7 @@
       <c r="AE73" s="23"/>
       <c r="AF73" s="23"/>
       <c r="AG73" s="23"/>
-      <c r="AH73" s="49"/>
+      <c r="AH73" s="44"/>
       <c r="AI73" s="22"/>
       <c r="AJ73" s="4"/>
     </row>
@@ -4525,7 +4443,7 @@
       <c r="AE74" s="23"/>
       <c r="AF74" s="23"/>
       <c r="AG74" s="23"/>
-      <c r="AH74" s="49"/>
+      <c r="AH74" s="44"/>
       <c r="AI74" s="22"/>
       <c r="AJ74" s="4"/>
     </row>
@@ -4562,7 +4480,7 @@
       <c r="AE75" s="23"/>
       <c r="AF75" s="23"/>
       <c r="AG75" s="23"/>
-      <c r="AH75" s="49"/>
+      <c r="AH75" s="44"/>
       <c r="AI75" s="22"/>
       <c r="AJ75" s="4"/>
     </row>
@@ -4599,7 +4517,7 @@
       <c r="AE76" s="23"/>
       <c r="AF76" s="23"/>
       <c r="AG76" s="23"/>
-      <c r="AH76" s="49"/>
+      <c r="AH76" s="44"/>
       <c r="AI76" s="22"/>
       <c r="AJ76" s="4"/>
     </row>
@@ -4636,7 +4554,7 @@
       <c r="AE77" s="23"/>
       <c r="AF77" s="23"/>
       <c r="AG77" s="23"/>
-      <c r="AH77" s="49"/>
+      <c r="AH77" s="44"/>
       <c r="AI77" s="22"/>
       <c r="AJ77" s="5"/>
     </row>
@@ -4673,7 +4591,7 @@
       <c r="AE78" s="23"/>
       <c r="AF78" s="23"/>
       <c r="AG78" s="23"/>
-      <c r="AH78" s="49"/>
+      <c r="AH78" s="44"/>
       <c r="AI78" s="22"/>
       <c r="AJ78" s="4"/>
     </row>
@@ -4710,7 +4628,7 @@
       <c r="AE79" s="23"/>
       <c r="AF79" s="23"/>
       <c r="AG79" s="23"/>
-      <c r="AH79" s="49"/>
+      <c r="AH79" s="44"/>
       <c r="AI79" s="22"/>
       <c r="AJ79" s="4"/>
     </row>
@@ -4747,7 +4665,7 @@
       <c r="AE80" s="23"/>
       <c r="AF80" s="23"/>
       <c r="AG80" s="23"/>
-      <c r="AH80" s="49"/>
+      <c r="AH80" s="44"/>
       <c r="AI80" s="22"/>
       <c r="AJ80" s="4"/>
     </row>
@@ -4784,7 +4702,7 @@
       <c r="AE81" s="23"/>
       <c r="AF81" s="23"/>
       <c r="AG81" s="23"/>
-      <c r="AH81" s="49"/>
+      <c r="AH81" s="44"/>
       <c r="AI81" s="22"/>
       <c r="AJ81" s="4"/>
     </row>
@@ -4821,7 +4739,7 @@
       <c r="AE82" s="23"/>
       <c r="AF82" s="23"/>
       <c r="AG82" s="23"/>
-      <c r="AH82" s="49"/>
+      <c r="AH82" s="44"/>
       <c r="AI82" s="22"/>
       <c r="AJ82" s="4"/>
     </row>
@@ -4858,7 +4776,7 @@
       <c r="AE83" s="23"/>
       <c r="AF83" s="23"/>
       <c r="AG83" s="23"/>
-      <c r="AH83" s="49"/>
+      <c r="AH83" s="44"/>
       <c r="AI83" s="22"/>
       <c r="AJ83" s="5"/>
     </row>
@@ -4895,7 +4813,7 @@
       <c r="AE84" s="23"/>
       <c r="AF84" s="23"/>
       <c r="AG84" s="23"/>
-      <c r="AH84" s="49"/>
+      <c r="AH84" s="44"/>
       <c r="AI84" s="22"/>
       <c r="AJ84" s="4"/>
     </row>
@@ -4932,7 +4850,7 @@
       <c r="AE85" s="23"/>
       <c r="AF85" s="23"/>
       <c r="AG85" s="23"/>
-      <c r="AH85" s="49"/>
+      <c r="AH85" s="44"/>
       <c r="AI85" s="22"/>
       <c r="AJ85" s="4"/>
     </row>
@@ -4969,7 +4887,7 @@
       <c r="AE86" s="23"/>
       <c r="AF86" s="23"/>
       <c r="AG86" s="23"/>
-      <c r="AH86" s="49"/>
+      <c r="AH86" s="44"/>
       <c r="AI86" s="22"/>
       <c r="AJ86" s="4"/>
     </row>
@@ -5006,7 +4924,7 @@
       <c r="AE87" s="23"/>
       <c r="AF87" s="23"/>
       <c r="AG87" s="23"/>
-      <c r="AH87" s="49"/>
+      <c r="AH87" s="44"/>
       <c r="AI87" s="22"/>
       <c r="AJ87" s="4"/>
     </row>
@@ -5043,7 +4961,7 @@
       <c r="AE88" s="23"/>
       <c r="AF88" s="23"/>
       <c r="AG88" s="23"/>
-      <c r="AH88" s="49"/>
+      <c r="AH88" s="44"/>
       <c r="AI88" s="22"/>
       <c r="AJ88" s="4"/>
     </row>
@@ -5080,7 +4998,7 @@
       <c r="AE89" s="23"/>
       <c r="AF89" s="23"/>
       <c r="AG89" s="23"/>
-      <c r="AH89" s="49"/>
+      <c r="AH89" s="44"/>
       <c r="AI89" s="22"/>
       <c r="AJ89" s="4"/>
     </row>
@@ -5117,7 +5035,7 @@
       <c r="AE90" s="23"/>
       <c r="AF90" s="23"/>
       <c r="AG90" s="23"/>
-      <c r="AH90" s="49"/>
+      <c r="AH90" s="44"/>
       <c r="AI90" s="22"/>
       <c r="AJ90" s="4"/>
     </row>
@@ -5154,7 +5072,7 @@
       <c r="AE91" s="23"/>
       <c r="AF91" s="23"/>
       <c r="AG91" s="23"/>
-      <c r="AH91" s="49"/>
+      <c r="AH91" s="44"/>
       <c r="AI91" s="22"/>
       <c r="AJ91" s="4"/>
     </row>
@@ -5191,7 +5109,7 @@
       <c r="AE92" s="23"/>
       <c r="AF92" s="23"/>
       <c r="AG92" s="23"/>
-      <c r="AH92" s="49"/>
+      <c r="AH92" s="44"/>
       <c r="AI92" s="22"/>
       <c r="AJ92" s="4"/>
     </row>
@@ -5228,7 +5146,7 @@
       <c r="AE93" s="23"/>
       <c r="AF93" s="23"/>
       <c r="AG93" s="23"/>
-      <c r="AH93" s="49"/>
+      <c r="AH93" s="44"/>
       <c r="AI93" s="22"/>
       <c r="AJ93" s="4"/>
     </row>
@@ -5265,7 +5183,7 @@
       <c r="AE94" s="23"/>
       <c r="AF94" s="23"/>
       <c r="AG94" s="23"/>
-      <c r="AH94" s="49"/>
+      <c r="AH94" s="44"/>
       <c r="AI94" s="22"/>
       <c r="AJ94" s="4"/>
     </row>
@@ -5302,7 +5220,7 @@
       <c r="AE95" s="23"/>
       <c r="AF95" s="23"/>
       <c r="AG95" s="23"/>
-      <c r="AH95" s="49"/>
+      <c r="AH95" s="44"/>
       <c r="AI95" s="22"/>
       <c r="AJ95" s="4"/>
     </row>
@@ -5339,7 +5257,7 @@
       <c r="AE96" s="23"/>
       <c r="AF96" s="23"/>
       <c r="AG96" s="23"/>
-      <c r="AH96" s="49"/>
+      <c r="AH96" s="44"/>
       <c r="AI96" s="22"/>
       <c r="AJ96" s="4"/>
     </row>
@@ -5376,7 +5294,7 @@
       <c r="AE97" s="23"/>
       <c r="AF97" s="23"/>
       <c r="AG97" s="23"/>
-      <c r="AH97" s="49"/>
+      <c r="AH97" s="44"/>
       <c r="AI97" s="22"/>
       <c r="AJ97" s="4"/>
     </row>
@@ -5413,7 +5331,7 @@
       <c r="AE98" s="23"/>
       <c r="AF98" s="23"/>
       <c r="AG98" s="23"/>
-      <c r="AH98" s="49"/>
+      <c r="AH98" s="44"/>
       <c r="AI98" s="22"/>
       <c r="AJ98" s="4"/>
     </row>
@@ -5450,7 +5368,7 @@
       <c r="AE99" s="23"/>
       <c r="AF99" s="23"/>
       <c r="AG99" s="23"/>
-      <c r="AH99" s="49"/>
+      <c r="AH99" s="44"/>
       <c r="AI99" s="22"/>
       <c r="AJ99" s="4"/>
     </row>
@@ -5487,7 +5405,7 @@
       <c r="AE100" s="23"/>
       <c r="AF100" s="23"/>
       <c r="AG100" s="23"/>
-      <c r="AH100" s="49"/>
+      <c r="AH100" s="44"/>
       <c r="AI100" s="22"/>
       <c r="AJ100" s="4"/>
     </row>
@@ -5524,7 +5442,7 @@
       <c r="AE101" s="23"/>
       <c r="AF101" s="23"/>
       <c r="AG101" s="23"/>
-      <c r="AH101" s="49"/>
+      <c r="AH101" s="44"/>
       <c r="AI101" s="22"/>
       <c r="AJ101" s="4"/>
     </row>
@@ -5561,7 +5479,7 @@
       <c r="AE102" s="23"/>
       <c r="AF102" s="23"/>
       <c r="AG102" s="23"/>
-      <c r="AH102" s="49"/>
+      <c r="AH102" s="44"/>
       <c r="AI102" s="22"/>
       <c r="AJ102" s="4"/>
     </row>
@@ -5598,7 +5516,7 @@
       <c r="AE103" s="23"/>
       <c r="AF103" s="23"/>
       <c r="AG103" s="23"/>
-      <c r="AH103" s="49"/>
+      <c r="AH103" s="44"/>
       <c r="AI103" s="22"/>
       <c r="AJ103" s="4"/>
     </row>
@@ -5635,7 +5553,7 @@
       <c r="AE104" s="23"/>
       <c r="AF104" s="23"/>
       <c r="AG104" s="23"/>
-      <c r="AH104" s="49"/>
+      <c r="AH104" s="44"/>
       <c r="AI104" s="22"/>
       <c r="AJ104" s="4"/>
     </row>
@@ -5672,7 +5590,7 @@
       <c r="AE105" s="23"/>
       <c r="AF105" s="23"/>
       <c r="AG105" s="23"/>
-      <c r="AH105" s="49"/>
+      <c r="AH105" s="44"/>
       <c r="AI105" s="22"/>
       <c r="AJ105" s="4"/>
     </row>
@@ -5709,7 +5627,7 @@
       <c r="AE106" s="23"/>
       <c r="AF106" s="23"/>
       <c r="AG106" s="23"/>
-      <c r="AH106" s="49"/>
+      <c r="AH106" s="44"/>
       <c r="AI106" s="22"/>
       <c r="AJ106" s="4"/>
     </row>
@@ -5746,7 +5664,7 @@
       <c r="AE107" s="23"/>
       <c r="AF107" s="23"/>
       <c r="AG107" s="23"/>
-      <c r="AH107" s="49"/>
+      <c r="AH107" s="44"/>
       <c r="AI107" s="22"/>
       <c r="AJ107" s="4"/>
     </row>
@@ -5783,7 +5701,7 @@
       <c r="AE108" s="23"/>
       <c r="AF108" s="23"/>
       <c r="AG108" s="23"/>
-      <c r="AH108" s="49"/>
+      <c r="AH108" s="44"/>
       <c r="AI108" s="22"/>
       <c r="AJ108" s="4"/>
     </row>
@@ -5820,7 +5738,7 @@
       <c r="AE109" s="23"/>
       <c r="AF109" s="23"/>
       <c r="AG109" s="23"/>
-      <c r="AH109" s="49"/>
+      <c r="AH109" s="44"/>
       <c r="AI109" s="22"/>
       <c r="AJ109" s="4"/>
     </row>
@@ -5857,7 +5775,7 @@
       <c r="AE110" s="23"/>
       <c r="AF110" s="23"/>
       <c r="AG110" s="23"/>
-      <c r="AH110" s="49"/>
+      <c r="AH110" s="44"/>
       <c r="AI110" s="22"/>
       <c r="AJ110" s="4"/>
     </row>
@@ -5894,7 +5812,7 @@
       <c r="AE111" s="23"/>
       <c r="AF111" s="23"/>
       <c r="AG111" s="23"/>
-      <c r="AH111" s="49"/>
+      <c r="AH111" s="44"/>
       <c r="AI111" s="22"/>
       <c r="AJ111" s="4"/>
     </row>
@@ -5931,7 +5849,7 @@
       <c r="AE112" s="23"/>
       <c r="AF112" s="23"/>
       <c r="AG112" s="23"/>
-      <c r="AH112" s="49"/>
+      <c r="AH112" s="44"/>
       <c r="AI112" s="22"/>
       <c r="AJ112" s="4"/>
     </row>
@@ -5968,7 +5886,7 @@
       <c r="AE113" s="23"/>
       <c r="AF113" s="23"/>
       <c r="AG113" s="23"/>
-      <c r="AH113" s="49"/>
+      <c r="AH113" s="44"/>
       <c r="AI113" s="22"/>
       <c r="AJ113" s="4"/>
     </row>
@@ -6005,7 +5923,7 @@
       <c r="AE114" s="23"/>
       <c r="AF114" s="23"/>
       <c r="AG114" s="23"/>
-      <c r="AH114" s="49"/>
+      <c r="AH114" s="44"/>
       <c r="AI114" s="22"/>
       <c r="AJ114" s="4"/>
     </row>
@@ -6042,7 +5960,7 @@
       <c r="AE115" s="23"/>
       <c r="AF115" s="23"/>
       <c r="AG115" s="23"/>
-      <c r="AH115" s="49"/>
+      <c r="AH115" s="44"/>
       <c r="AI115" s="22"/>
       <c r="AJ115" s="4"/>
     </row>
@@ -6079,7 +5997,7 @@
       <c r="AE116" s="23"/>
       <c r="AF116" s="23"/>
       <c r="AG116" s="23"/>
-      <c r="AH116" s="49"/>
+      <c r="AH116" s="44"/>
       <c r="AI116" s="22"/>
       <c r="AJ116" s="4"/>
     </row>
@@ -6116,7 +6034,7 @@
       <c r="AE117" s="23"/>
       <c r="AF117" s="23"/>
       <c r="AG117" s="23"/>
-      <c r="AH117" s="49"/>
+      <c r="AH117" s="44"/>
       <c r="AI117" s="22"/>
       <c r="AJ117" s="4"/>
     </row>
@@ -6153,7 +6071,7 @@
       <c r="AE118" s="23"/>
       <c r="AF118" s="23"/>
       <c r="AG118" s="23"/>
-      <c r="AH118" s="49"/>
+      <c r="AH118" s="44"/>
       <c r="AI118" s="22"/>
       <c r="AJ118" s="4"/>
     </row>
@@ -6190,7 +6108,7 @@
       <c r="AE119" s="23"/>
       <c r="AF119" s="23"/>
       <c r="AG119" s="23"/>
-      <c r="AH119" s="49"/>
+      <c r="AH119" s="44"/>
       <c r="AI119" s="22"/>
       <c r="AJ119" s="4"/>
     </row>
@@ -6227,7 +6145,7 @@
       <c r="AE120" s="23"/>
       <c r="AF120" s="23"/>
       <c r="AG120" s="23"/>
-      <c r="AH120" s="49"/>
+      <c r="AH120" s="44"/>
       <c r="AI120" s="22"/>
       <c r="AJ120" s="4"/>
     </row>
@@ -6264,7 +6182,7 @@
       <c r="AE121" s="23"/>
       <c r="AF121" s="23"/>
       <c r="AG121" s="23"/>
-      <c r="AH121" s="49"/>
+      <c r="AH121" s="44"/>
       <c r="AI121" s="22"/>
       <c r="AJ121" s="4"/>
     </row>
@@ -6301,7 +6219,7 @@
       <c r="AE122" s="23"/>
       <c r="AF122" s="23"/>
       <c r="AG122" s="23"/>
-      <c r="AH122" s="49"/>
+      <c r="AH122" s="44"/>
       <c r="AI122" s="22"/>
       <c r="AJ122" s="4"/>
     </row>
@@ -6338,7 +6256,7 @@
       <c r="AE123" s="23"/>
       <c r="AF123" s="23"/>
       <c r="AG123" s="23"/>
-      <c r="AH123" s="49"/>
+      <c r="AH123" s="44"/>
       <c r="AI123" s="22"/>
       <c r="AJ123" s="4"/>
     </row>
@@ -6375,7 +6293,7 @@
       <c r="AE124" s="23"/>
       <c r="AF124" s="23"/>
       <c r="AG124" s="23"/>
-      <c r="AH124" s="49"/>
+      <c r="AH124" s="44"/>
       <c r="AI124" s="22"/>
       <c r="AJ124" s="4"/>
     </row>
@@ -6412,7 +6330,7 @@
       <c r="AE125" s="23"/>
       <c r="AF125" s="23"/>
       <c r="AG125" s="23"/>
-      <c r="AH125" s="49"/>
+      <c r="AH125" s="44"/>
       <c r="AI125" s="22"/>
       <c r="AJ125" s="4"/>
     </row>
@@ -6449,7 +6367,7 @@
       <c r="AE126" s="23"/>
       <c r="AF126" s="23"/>
       <c r="AG126" s="23"/>
-      <c r="AH126" s="49"/>
+      <c r="AH126" s="44"/>
       <c r="AI126" s="22"/>
       <c r="AJ126" s="4"/>
     </row>
@@ -6486,7 +6404,7 @@
       <c r="AE127" s="23"/>
       <c r="AF127" s="23"/>
       <c r="AG127" s="23"/>
-      <c r="AH127" s="49"/>
+      <c r="AH127" s="44"/>
       <c r="AI127" s="22"/>
       <c r="AJ127" s="4"/>
     </row>
@@ -6523,7 +6441,7 @@
       <c r="AE128" s="23"/>
       <c r="AF128" s="23"/>
       <c r="AG128" s="23"/>
-      <c r="AH128" s="49"/>
+      <c r="AH128" s="44"/>
       <c r="AI128" s="22"/>
       <c r="AJ128" s="4"/>
     </row>
@@ -6560,7 +6478,7 @@
       <c r="AE129" s="23"/>
       <c r="AF129" s="23"/>
       <c r="AG129" s="23"/>
-      <c r="AH129" s="49"/>
+      <c r="AH129" s="44"/>
       <c r="AI129" s="22"/>
       <c r="AJ129" s="4"/>
     </row>
@@ -6597,7 +6515,7 @@
       <c r="AE130" s="23"/>
       <c r="AF130" s="23"/>
       <c r="AG130" s="23"/>
-      <c r="AH130" s="49"/>
+      <c r="AH130" s="44"/>
       <c r="AI130" s="22"/>
       <c r="AJ130" s="4"/>
     </row>
@@ -6634,7 +6552,7 @@
       <c r="AE131" s="23"/>
       <c r="AF131" s="23"/>
       <c r="AG131" s="23"/>
-      <c r="AH131" s="49"/>
+      <c r="AH131" s="44"/>
       <c r="AI131" s="22"/>
       <c r="AJ131" s="4"/>
     </row>
@@ -6671,7 +6589,7 @@
       <c r="AE132" s="23"/>
       <c r="AF132" s="23"/>
       <c r="AG132" s="23"/>
-      <c r="AH132" s="49"/>
+      <c r="AH132" s="44"/>
       <c r="AI132" s="22"/>
       <c r="AJ132" s="4"/>
     </row>
@@ -6708,7 +6626,7 @@
       <c r="AE133" s="23"/>
       <c r="AF133" s="23"/>
       <c r="AG133" s="23"/>
-      <c r="AH133" s="49"/>
+      <c r="AH133" s="44"/>
       <c r="AI133" s="22"/>
       <c r="AJ133" s="4"/>
     </row>
@@ -6745,7 +6663,7 @@
       <c r="AE134" s="23"/>
       <c r="AF134" s="23"/>
       <c r="AG134" s="23"/>
-      <c r="AH134" s="49"/>
+      <c r="AH134" s="44"/>
       <c r="AI134" s="22"/>
       <c r="AJ134" s="4"/>
     </row>
@@ -6782,7 +6700,7 @@
       <c r="AE135" s="23"/>
       <c r="AF135" s="23"/>
       <c r="AG135" s="23"/>
-      <c r="AH135" s="49"/>
+      <c r="AH135" s="44"/>
       <c r="AI135" s="22"/>
       <c r="AJ135" s="4"/>
     </row>
@@ -6819,7 +6737,7 @@
       <c r="AE136" s="23"/>
       <c r="AF136" s="23"/>
       <c r="AG136" s="23"/>
-      <c r="AH136" s="49"/>
+      <c r="AH136" s="44"/>
       <c r="AI136" s="22"/>
       <c r="AJ136" s="4"/>
     </row>
@@ -6856,7 +6774,7 @@
       <c r="AE137" s="23"/>
       <c r="AF137" s="23"/>
       <c r="AG137" s="23"/>
-      <c r="AH137" s="49"/>
+      <c r="AH137" s="44"/>
       <c r="AI137" s="22"/>
       <c r="AJ137" s="4"/>
     </row>
@@ -6893,7 +6811,7 @@
       <c r="AE138" s="23"/>
       <c r="AF138" s="23"/>
       <c r="AG138" s="23"/>
-      <c r="AH138" s="49"/>
+      <c r="AH138" s="44"/>
       <c r="AI138" s="22"/>
       <c r="AJ138" s="4"/>
     </row>
@@ -6930,7 +6848,7 @@
       <c r="AE139" s="23"/>
       <c r="AF139" s="23"/>
       <c r="AG139" s="23"/>
-      <c r="AH139" s="49"/>
+      <c r="AH139" s="44"/>
       <c r="AI139" s="22"/>
       <c r="AJ139" s="4"/>
     </row>
@@ -6967,7 +6885,7 @@
       <c r="AE140" s="23"/>
       <c r="AF140" s="23"/>
       <c r="AG140" s="23"/>
-      <c r="AH140" s="49"/>
+      <c r="AH140" s="44"/>
       <c r="AI140" s="22"/>
       <c r="AJ140" s="4"/>
     </row>
@@ -7004,7 +6922,7 @@
       <c r="AE141" s="23"/>
       <c r="AF141" s="23"/>
       <c r="AG141" s="23"/>
-      <c r="AH141" s="49"/>
+      <c r="AH141" s="44"/>
       <c r="AI141" s="22"/>
       <c r="AJ141" s="4"/>
     </row>
@@ -7041,7 +6959,7 @@
       <c r="AE142" s="23"/>
       <c r="AF142" s="23"/>
       <c r="AG142" s="23"/>
-      <c r="AH142" s="49"/>
+      <c r="AH142" s="44"/>
       <c r="AI142" s="22"/>
       <c r="AJ142" s="4"/>
     </row>
@@ -7078,7 +6996,7 @@
       <c r="AE143" s="23"/>
       <c r="AF143" s="23"/>
       <c r="AG143" s="23"/>
-      <c r="AH143" s="49"/>
+      <c r="AH143" s="44"/>
       <c r="AI143" s="22"/>
       <c r="AJ143" s="4"/>
     </row>
@@ -7115,7 +7033,7 @@
       <c r="AE144" s="23"/>
       <c r="AF144" s="23"/>
       <c r="AG144" s="23"/>
-      <c r="AH144" s="49"/>
+      <c r="AH144" s="44"/>
       <c r="AI144" s="22"/>
       <c r="AJ144" s="4"/>
     </row>
@@ -7152,7 +7070,7 @@
       <c r="AE145" s="23"/>
       <c r="AF145" s="23"/>
       <c r="AG145" s="23"/>
-      <c r="AH145" s="49"/>
+      <c r="AH145" s="44"/>
       <c r="AI145" s="22"/>
       <c r="AJ145" s="4"/>
     </row>
@@ -7189,7 +7107,7 @@
       <c r="AE146" s="23"/>
       <c r="AF146" s="23"/>
       <c r="AG146" s="23"/>
-      <c r="AH146" s="49"/>
+      <c r="AH146" s="44"/>
       <c r="AI146" s="22"/>
       <c r="AJ146" s="4"/>
     </row>
@@ -7226,7 +7144,7 @@
       <c r="AE147" s="23"/>
       <c r="AF147" s="23"/>
       <c r="AG147" s="23"/>
-      <c r="AH147" s="49"/>
+      <c r="AH147" s="44"/>
       <c r="AI147" s="22"/>
       <c r="AJ147" s="4"/>
     </row>
@@ -7263,7 +7181,7 @@
       <c r="AE148" s="23"/>
       <c r="AF148" s="23"/>
       <c r="AG148" s="23"/>
-      <c r="AH148" s="49"/>
+      <c r="AH148" s="44"/>
       <c r="AI148" s="22"/>
       <c r="AJ148" s="4"/>
     </row>
@@ -7300,7 +7218,7 @@
       <c r="AE149" s="23"/>
       <c r="AF149" s="23"/>
       <c r="AG149" s="23"/>
-      <c r="AH149" s="49"/>
+      <c r="AH149" s="44"/>
       <c r="AI149" s="22"/>
       <c r="AJ149" s="4"/>
     </row>
@@ -7337,7 +7255,7 @@
       <c r="AE150" s="23"/>
       <c r="AF150" s="23"/>
       <c r="AG150" s="23"/>
-      <c r="AH150" s="49"/>
+      <c r="AH150" s="44"/>
       <c r="AI150" s="22"/>
       <c r="AJ150" s="4"/>
     </row>
@@ -7374,7 +7292,7 @@
       <c r="AE151" s="23"/>
       <c r="AF151" s="23"/>
       <c r="AG151" s="23"/>
-      <c r="AH151" s="49"/>
+      <c r="AH151" s="44"/>
       <c r="AI151" s="22"/>
       <c r="AJ151" s="4"/>
     </row>
@@ -7411,7 +7329,7 @@
       <c r="AE152" s="23"/>
       <c r="AF152" s="23"/>
       <c r="AG152" s="23"/>
-      <c r="AH152" s="49"/>
+      <c r="AH152" s="44"/>
       <c r="AI152" s="22"/>
       <c r="AJ152" s="4"/>
     </row>
@@ -7448,7 +7366,7 @@
       <c r="AE153" s="23"/>
       <c r="AF153" s="23"/>
       <c r="AG153" s="23"/>
-      <c r="AH153" s="49"/>
+      <c r="AH153" s="44"/>
       <c r="AI153" s="22"/>
       <c r="AJ153" s="4"/>
     </row>
@@ -7485,7 +7403,7 @@
       <c r="AE154" s="23"/>
       <c r="AF154" s="23"/>
       <c r="AG154" s="23"/>
-      <c r="AH154" s="49"/>
+      <c r="AH154" s="44"/>
       <c r="AI154" s="22"/>
       <c r="AJ154" s="4"/>
     </row>
@@ -7522,7 +7440,7 @@
       <c r="AE155" s="23"/>
       <c r="AF155" s="23"/>
       <c r="AG155" s="23"/>
-      <c r="AH155" s="49"/>
+      <c r="AH155" s="44"/>
       <c r="AI155" s="22"/>
       <c r="AJ155" s="4"/>
     </row>
@@ -7559,7 +7477,7 @@
       <c r="AE156" s="23"/>
       <c r="AF156" s="23"/>
       <c r="AG156" s="23"/>
-      <c r="AH156" s="49"/>
+      <c r="AH156" s="44"/>
       <c r="AI156" s="22"/>
       <c r="AJ156" s="4"/>
     </row>
@@ -7596,7 +7514,7 @@
       <c r="AE157" s="23"/>
       <c r="AF157" s="23"/>
       <c r="AG157" s="23"/>
-      <c r="AH157" s="49"/>
+      <c r="AH157" s="44"/>
       <c r="AI157" s="22"/>
       <c r="AJ157" s="4"/>
     </row>
@@ -7633,7 +7551,7 @@
       <c r="AE158" s="23"/>
       <c r="AF158" s="23"/>
       <c r="AG158" s="23"/>
-      <c r="AH158" s="49"/>
+      <c r="AH158" s="44"/>
       <c r="AI158" s="22"/>
       <c r="AJ158" s="4"/>
     </row>
@@ -7670,7 +7588,7 @@
       <c r="AE159" s="23"/>
       <c r="AF159" s="23"/>
       <c r="AG159" s="23"/>
-      <c r="AH159" s="49"/>
+      <c r="AH159" s="44"/>
       <c r="AI159" s="22"/>
       <c r="AJ159" s="4"/>
     </row>
@@ -7707,7 +7625,7 @@
       <c r="AE160" s="23"/>
       <c r="AF160" s="23"/>
       <c r="AG160" s="23"/>
-      <c r="AH160" s="49"/>
+      <c r="AH160" s="44"/>
       <c r="AI160" s="22"/>
       <c r="AJ160" s="4"/>
     </row>
@@ -7744,7 +7662,7 @@
       <c r="AE161" s="23"/>
       <c r="AF161" s="23"/>
       <c r="AG161" s="23"/>
-      <c r="AH161" s="49"/>
+      <c r="AH161" s="44"/>
       <c r="AI161" s="22"/>
       <c r="AJ161" s="4"/>
     </row>
@@ -7781,7 +7699,7 @@
       <c r="AE162" s="23"/>
       <c r="AF162" s="23"/>
       <c r="AG162" s="23"/>
-      <c r="AH162" s="49"/>
+      <c r="AH162" s="44"/>
       <c r="AI162" s="22"/>
       <c r="AJ162" s="4"/>
     </row>
@@ -7818,7 +7736,7 @@
       <c r="AE163" s="23"/>
       <c r="AF163" s="23"/>
       <c r="AG163" s="23"/>
-      <c r="AH163" s="49"/>
+      <c r="AH163" s="44"/>
       <c r="AI163" s="22"/>
       <c r="AJ163" s="4"/>
     </row>
@@ -7855,7 +7773,7 @@
       <c r="AE164" s="23"/>
       <c r="AF164" s="23"/>
       <c r="AG164" s="23"/>
-      <c r="AH164" s="49"/>
+      <c r="AH164" s="44"/>
       <c r="AI164" s="22"/>
       <c r="AJ164" s="4"/>
     </row>
@@ -7892,7 +7810,7 @@
       <c r="AE165" s="23"/>
       <c r="AF165" s="23"/>
       <c r="AG165" s="23"/>
-      <c r="AH165" s="49"/>
+      <c r="AH165" s="44"/>
       <c r="AI165" s="22"/>
       <c r="AJ165" s="4"/>
     </row>
@@ -7929,7 +7847,7 @@
       <c r="AE166" s="23"/>
       <c r="AF166" s="23"/>
       <c r="AG166" s="23"/>
-      <c r="AH166" s="49"/>
+      <c r="AH166" s="44"/>
       <c r="AI166" s="22"/>
       <c r="AJ166" s="4"/>
     </row>
@@ -7966,7 +7884,7 @@
       <c r="AE167" s="23"/>
       <c r="AF167" s="23"/>
       <c r="AG167" s="23"/>
-      <c r="AH167" s="49"/>
+      <c r="AH167" s="44"/>
       <c r="AI167" s="22"/>
       <c r="AJ167" s="4"/>
     </row>
@@ -8003,7 +7921,7 @@
       <c r="AE168" s="23"/>
       <c r="AF168" s="23"/>
       <c r="AG168" s="23"/>
-      <c r="AH168" s="49"/>
+      <c r="AH168" s="44"/>
       <c r="AI168" s="22"/>
       <c r="AJ168" s="4"/>
     </row>
@@ -8040,7 +7958,7 @@
       <c r="AE169" s="23"/>
       <c r="AF169" s="23"/>
       <c r="AG169" s="23"/>
-      <c r="AH169" s="49"/>
+      <c r="AH169" s="44"/>
       <c r="AI169" s="22"/>
       <c r="AJ169" s="4"/>
     </row>
@@ -8077,7 +7995,7 @@
       <c r="AE170" s="23"/>
       <c r="AF170" s="23"/>
       <c r="AG170" s="23"/>
-      <c r="AH170" s="49"/>
+      <c r="AH170" s="44"/>
       <c r="AI170" s="22"/>
       <c r="AJ170" s="4"/>
     </row>
@@ -8114,7 +8032,7 @@
       <c r="AE171" s="23"/>
       <c r="AF171" s="23"/>
       <c r="AG171" s="23"/>
-      <c r="AH171" s="49"/>
+      <c r="AH171" s="44"/>
       <c r="AI171" s="22"/>
       <c r="AJ171" s="4"/>
     </row>
@@ -8151,7 +8069,7 @@
       <c r="AE172" s="23"/>
       <c r="AF172" s="23"/>
       <c r="AG172" s="23"/>
-      <c r="AH172" s="49"/>
+      <c r="AH172" s="44"/>
       <c r="AI172" s="22"/>
       <c r="AJ172" s="4"/>
     </row>
@@ -8188,7 +8106,7 @@
       <c r="AE173" s="23"/>
       <c r="AF173" s="23"/>
       <c r="AG173" s="23"/>
-      <c r="AH173" s="49"/>
+      <c r="AH173" s="44"/>
       <c r="AI173" s="22"/>
       <c r="AJ173" s="4"/>
     </row>
@@ -8225,7 +8143,7 @@
       <c r="AE174" s="23"/>
       <c r="AF174" s="23"/>
       <c r="AG174" s="23"/>
-      <c r="AH174" s="49"/>
+      <c r="AH174" s="44"/>
       <c r="AI174" s="22"/>
       <c r="AJ174" s="4"/>
     </row>
@@ -8262,7 +8180,7 @@
       <c r="AE175" s="23"/>
       <c r="AF175" s="23"/>
       <c r="AG175" s="23"/>
-      <c r="AH175" s="49"/>
+      <c r="AH175" s="44"/>
       <c r="AI175" s="22"/>
       <c r="AJ175" s="4"/>
     </row>
@@ -8299,7 +8217,7 @@
       <c r="AE176" s="23"/>
       <c r="AF176" s="23"/>
       <c r="AG176" s="23"/>
-      <c r="AH176" s="49"/>
+      <c r="AH176" s="44"/>
       <c r="AI176" s="22"/>
       <c r="AJ176" s="4"/>
     </row>
@@ -8336,7 +8254,7 @@
       <c r="AE177" s="23"/>
       <c r="AF177" s="23"/>
       <c r="AG177" s="23"/>
-      <c r="AH177" s="49"/>
+      <c r="AH177" s="44"/>
       <c r="AI177" s="22"/>
       <c r="AJ177" s="4"/>
     </row>
@@ -8373,7 +8291,7 @@
       <c r="AE178" s="23"/>
       <c r="AF178" s="23"/>
       <c r="AG178" s="23"/>
-      <c r="AH178" s="49"/>
+      <c r="AH178" s="44"/>
       <c r="AI178" s="22"/>
       <c r="AJ178" s="4"/>
     </row>
@@ -8410,7 +8328,7 @@
       <c r="AE179" s="23"/>
       <c r="AF179" s="23"/>
       <c r="AG179" s="23"/>
-      <c r="AH179" s="49"/>
+      <c r="AH179" s="44"/>
       <c r="AI179" s="22"/>
       <c r="AJ179" s="4"/>
     </row>
@@ -8447,7 +8365,7 @@
       <c r="AE180" s="23"/>
       <c r="AF180" s="23"/>
       <c r="AG180" s="23"/>
-      <c r="AH180" s="49"/>
+      <c r="AH180" s="44"/>
       <c r="AI180" s="22"/>
       <c r="AJ180" s="4"/>
     </row>
@@ -8484,7 +8402,7 @@
       <c r="AE181" s="23"/>
       <c r="AF181" s="23"/>
       <c r="AG181" s="23"/>
-      <c r="AH181" s="49"/>
+      <c r="AH181" s="44"/>
       <c r="AI181" s="22"/>
       <c r="AJ181" s="4"/>
     </row>
@@ -8521,7 +8439,7 @@
       <c r="AE182" s="23"/>
       <c r="AF182" s="23"/>
       <c r="AG182" s="23"/>
-      <c r="AH182" s="49"/>
+      <c r="AH182" s="44"/>
       <c r="AI182" s="22"/>
       <c r="AJ182" s="4"/>
     </row>
@@ -8558,7 +8476,7 @@
       <c r="AE183" s="23"/>
       <c r="AF183" s="23"/>
       <c r="AG183" s="23"/>
-      <c r="AH183" s="49"/>
+      <c r="AH183" s="44"/>
       <c r="AI183" s="22"/>
       <c r="AJ183" s="4"/>
     </row>
@@ -8595,7 +8513,7 @@
       <c r="AE184" s="23"/>
       <c r="AF184" s="23"/>
       <c r="AG184" s="23"/>
-      <c r="AH184" s="49"/>
+      <c r="AH184" s="44"/>
       <c r="AI184" s="22"/>
       <c r="AJ184" s="4"/>
     </row>
@@ -8632,7 +8550,7 @@
       <c r="AE185" s="23"/>
       <c r="AF185" s="23"/>
       <c r="AG185" s="23"/>
-      <c r="AH185" s="49"/>
+      <c r="AH185" s="44"/>
       <c r="AI185" s="22"/>
       <c r="AJ185" s="4"/>
     </row>
@@ -8669,7 +8587,7 @@
       <c r="AE186" s="23"/>
       <c r="AF186" s="23"/>
       <c r="AG186" s="23"/>
-      <c r="AH186" s="49"/>
+      <c r="AH186" s="44"/>
       <c r="AI186" s="22"/>
       <c r="AJ186" s="4"/>
     </row>
@@ -8706,7 +8624,7 @@
       <c r="AE187" s="23"/>
       <c r="AF187" s="23"/>
       <c r="AG187" s="23"/>
-      <c r="AH187" s="49"/>
+      <c r="AH187" s="44"/>
       <c r="AI187" s="22"/>
       <c r="AJ187" s="4"/>
     </row>
@@ -8743,7 +8661,7 @@
       <c r="AE188" s="23"/>
       <c r="AF188" s="23"/>
       <c r="AG188" s="23"/>
-      <c r="AH188" s="49"/>
+      <c r="AH188" s="44"/>
       <c r="AI188" s="22"/>
       <c r="AJ188" s="4"/>
     </row>
@@ -8780,7 +8698,7 @@
       <c r="AE189" s="23"/>
       <c r="AF189" s="23"/>
       <c r="AG189" s="23"/>
-      <c r="AH189" s="49"/>
+      <c r="AH189" s="44"/>
       <c r="AI189" s="22"/>
       <c r="AJ189" s="4"/>
     </row>
@@ -8817,7 +8735,7 @@
       <c r="AE190" s="23"/>
       <c r="AF190" s="23"/>
       <c r="AG190" s="23"/>
-      <c r="AH190" s="49"/>
+      <c r="AH190" s="44"/>
       <c r="AI190" s="22"/>
       <c r="AJ190" s="4"/>
     </row>
@@ -8854,7 +8772,7 @@
       <c r="AE191" s="23"/>
       <c r="AF191" s="23"/>
       <c r="AG191" s="23"/>
-      <c r="AH191" s="49"/>
+      <c r="AH191" s="44"/>
       <c r="AI191" s="22"/>
       <c r="AJ191" s="4"/>
     </row>
@@ -8891,7 +8809,7 @@
       <c r="AE192" s="23"/>
       <c r="AF192" s="23"/>
       <c r="AG192" s="23"/>
-      <c r="AH192" s="49"/>
+      <c r="AH192" s="44"/>
       <c r="AI192" s="22"/>
       <c r="AJ192" s="4"/>
     </row>
@@ -8928,7 +8846,7 @@
       <c r="AE193" s="23"/>
       <c r="AF193" s="23"/>
       <c r="AG193" s="23"/>
-      <c r="AH193" s="49"/>
+      <c r="AH193" s="44"/>
       <c r="AI193" s="22"/>
       <c r="AJ193" s="4"/>
     </row>
@@ -8965,7 +8883,7 @@
       <c r="AE194" s="23"/>
       <c r="AF194" s="23"/>
       <c r="AG194" s="23"/>
-      <c r="AH194" s="49"/>
+      <c r="AH194" s="44"/>
       <c r="AI194" s="22"/>
       <c r="AJ194" s="4"/>
     </row>
@@ -9002,7 +8920,7 @@
       <c r="AE195" s="23"/>
       <c r="AF195" s="23"/>
       <c r="AG195" s="23"/>
-      <c r="AH195" s="49"/>
+      <c r="AH195" s="44"/>
       <c r="AI195" s="22"/>
       <c r="AJ195" s="4"/>
     </row>
@@ -9039,7 +8957,7 @@
       <c r="AE196" s="23"/>
       <c r="AF196" s="23"/>
       <c r="AG196" s="23"/>
-      <c r="AH196" s="49"/>
+      <c r="AH196" s="44"/>
       <c r="AI196" s="22"/>
       <c r="AJ196" s="4"/>
     </row>
@@ -9076,7 +8994,7 @@
       <c r="AE197" s="23"/>
       <c r="AF197" s="23"/>
       <c r="AG197" s="23"/>
-      <c r="AH197" s="49"/>
+      <c r="AH197" s="44"/>
       <c r="AI197" s="22"/>
       <c r="AJ197" s="4"/>
     </row>
@@ -9113,7 +9031,7 @@
       <c r="AE198" s="23"/>
       <c r="AF198" s="23"/>
       <c r="AG198" s="23"/>
-      <c r="AH198" s="49"/>
+      <c r="AH198" s="44"/>
       <c r="AI198" s="22"/>
       <c r="AJ198" s="4"/>
     </row>
@@ -9150,7 +9068,7 @@
       <c r="AE199" s="23"/>
       <c r="AF199" s="23"/>
       <c r="AG199" s="23"/>
-      <c r="AH199" s="49"/>
+      <c r="AH199" s="44"/>
       <c r="AI199" s="22"/>
       <c r="AJ199" s="4"/>
     </row>
@@ -9187,7 +9105,7 @@
       <c r="AE200" s="23"/>
       <c r="AF200" s="23"/>
       <c r="AG200" s="23"/>
-      <c r="AH200" s="49"/>
+      <c r="AH200" s="44"/>
       <c r="AI200" s="22"/>
       <c r="AJ200" s="4"/>
     </row>
@@ -9224,7 +9142,7 @@
       <c r="AE201" s="23"/>
       <c r="AF201" s="23"/>
       <c r="AG201" s="23"/>
-      <c r="AH201" s="49"/>
+      <c r="AH201" s="44"/>
       <c r="AI201" s="22"/>
       <c r="AJ201" s="4"/>
     </row>
@@ -9261,7 +9179,7 @@
       <c r="AE202" s="23"/>
       <c r="AF202" s="23"/>
       <c r="AG202" s="23"/>
-      <c r="AH202" s="49"/>
+      <c r="AH202" s="44"/>
       <c r="AI202" s="22"/>
       <c r="AJ202" s="4"/>
     </row>
@@ -9298,7 +9216,7 @@
       <c r="AE203" s="23"/>
       <c r="AF203" s="23"/>
       <c r="AG203" s="23"/>
-      <c r="AH203" s="49"/>
+      <c r="AH203" s="44"/>
       <c r="AI203" s="22"/>
       <c r="AJ203" s="4"/>
     </row>
@@ -9335,7 +9253,7 @@
       <c r="AE204" s="23"/>
       <c r="AF204" s="23"/>
       <c r="AG204" s="23"/>
-      <c r="AH204" s="49"/>
+      <c r="AH204" s="44"/>
       <c r="AI204" s="22"/>
       <c r="AJ204" s="4"/>
     </row>
@@ -9372,7 +9290,7 @@
       <c r="AE205" s="23"/>
       <c r="AF205" s="23"/>
       <c r="AG205" s="23"/>
-      <c r="AH205" s="49"/>
+      <c r="AH205" s="44"/>
       <c r="AI205" s="22"/>
       <c r="AJ205" s="4"/>
     </row>
@@ -9409,7 +9327,7 @@
       <c r="AE206" s="23"/>
       <c r="AF206" s="23"/>
       <c r="AG206" s="23"/>
-      <c r="AH206" s="49"/>
+      <c r="AH206" s="44"/>
       <c r="AI206" s="22"/>
       <c r="AJ206" s="4"/>
     </row>
@@ -9446,7 +9364,7 @@
       <c r="AE207" s="23"/>
       <c r="AF207" s="23"/>
       <c r="AG207" s="23"/>
-      <c r="AH207" s="49"/>
+      <c r="AH207" s="44"/>
       <c r="AI207" s="22"/>
       <c r="AJ207" s="4"/>
     </row>
@@ -9483,7 +9401,7 @@
       <c r="AE208" s="23"/>
       <c r="AF208" s="23"/>
       <c r="AG208" s="23"/>
-      <c r="AH208" s="49"/>
+      <c r="AH208" s="44"/>
       <c r="AI208" s="22"/>
       <c r="AJ208" s="4"/>
     </row>
@@ -9520,7 +9438,7 @@
       <c r="AE209" s="23"/>
       <c r="AF209" s="23"/>
       <c r="AG209" s="23"/>
-      <c r="AH209" s="49"/>
+      <c r="AH209" s="44"/>
       <c r="AI209" s="22"/>
       <c r="AJ209" s="4"/>
     </row>
@@ -9557,7 +9475,7 @@
       <c r="AE210" s="23"/>
       <c r="AF210" s="23"/>
       <c r="AG210" s="23"/>
-      <c r="AH210" s="49"/>
+      <c r="AH210" s="44"/>
       <c r="AI210" s="22"/>
       <c r="AJ210" s="4"/>
     </row>
@@ -9594,7 +9512,7 @@
       <c r="AE211" s="23"/>
       <c r="AF211" s="23"/>
       <c r="AG211" s="23"/>
-      <c r="AH211" s="49"/>
+      <c r="AH211" s="44"/>
       <c r="AI211" s="22"/>
       <c r="AJ211" s="4"/>
     </row>
@@ -9631,7 +9549,7 @@
       <c r="AE212" s="23"/>
       <c r="AF212" s="23"/>
       <c r="AG212" s="23"/>
-      <c r="AH212" s="49"/>
+      <c r="AH212" s="44"/>
       <c r="AI212" s="22"/>
       <c r="AJ212" s="4"/>
     </row>
@@ -9668,7 +9586,7 @@
       <c r="AE213" s="23"/>
       <c r="AF213" s="23"/>
       <c r="AG213" s="23"/>
-      <c r="AH213" s="49"/>
+      <c r="AH213" s="44"/>
       <c r="AI213" s="22"/>
       <c r="AJ213" s="4"/>
     </row>
@@ -9705,7 +9623,7 @@
       <c r="AE214" s="23"/>
       <c r="AF214" s="23"/>
       <c r="AG214" s="23"/>
-      <c r="AH214" s="49"/>
+      <c r="AH214" s="44"/>
       <c r="AI214" s="22"/>
       <c r="AJ214" s="4"/>
     </row>
@@ -9742,7 +9660,7 @@
       <c r="AE215" s="23"/>
       <c r="AF215" s="23"/>
       <c r="AG215" s="23"/>
-      <c r="AH215" s="49"/>
+      <c r="AH215" s="44"/>
       <c r="AI215" s="22"/>
       <c r="AJ215" s="4"/>
     </row>
@@ -9779,7 +9697,7 @@
       <c r="AE216" s="23"/>
       <c r="AF216" s="23"/>
       <c r="AG216" s="23"/>
-      <c r="AH216" s="49"/>
+      <c r="AH216" s="44"/>
       <c r="AI216" s="22"/>
       <c r="AJ216" s="4"/>
     </row>
@@ -9816,7 +9734,7 @@
       <c r="AE217" s="23"/>
       <c r="AF217" s="23"/>
       <c r="AG217" s="23"/>
-      <c r="AH217" s="49"/>
+      <c r="AH217" s="44"/>
       <c r="AI217" s="22"/>
       <c r="AJ217" s="4"/>
     </row>
@@ -9853,7 +9771,7 @@
       <c r="AE218" s="23"/>
       <c r="AF218" s="23"/>
       <c r="AG218" s="23"/>
-      <c r="AH218" s="49"/>
+      <c r="AH218" s="44"/>
       <c r="AI218" s="22"/>
       <c r="AJ218" s="4"/>
     </row>
@@ -9890,7 +9808,7 @@
       <c r="AE219" s="23"/>
       <c r="AF219" s="23"/>
       <c r="AG219" s="23"/>
-      <c r="AH219" s="49"/>
+      <c r="AH219" s="44"/>
       <c r="AI219" s="22"/>
       <c r="AJ219" s="4"/>
     </row>
@@ -9927,7 +9845,7 @@
       <c r="AE220" s="23"/>
       <c r="AF220" s="23"/>
       <c r="AG220" s="23"/>
-      <c r="AH220" s="49"/>
+      <c r="AH220" s="44"/>
       <c r="AI220" s="22"/>
       <c r="AJ220" s="4"/>
     </row>
@@ -9964,7 +9882,7 @@
       <c r="AE221" s="23"/>
       <c r="AF221" s="23"/>
       <c r="AG221" s="23"/>
-      <c r="AH221" s="49"/>
+      <c r="AH221" s="44"/>
       <c r="AI221" s="22"/>
       <c r="AJ221" s="4"/>
     </row>
@@ -10001,7 +9919,7 @@
       <c r="AE222" s="23"/>
       <c r="AF222" s="23"/>
       <c r="AG222" s="23"/>
-      <c r="AH222" s="49"/>
+      <c r="AH222" s="44"/>
       <c r="AI222" s="22"/>
       <c r="AJ222" s="4"/>
     </row>
@@ -10038,7 +9956,7 @@
       <c r="AE223" s="23"/>
       <c r="AF223" s="23"/>
       <c r="AG223" s="23"/>
-      <c r="AH223" s="49"/>
+      <c r="AH223" s="44"/>
       <c r="AI223" s="22"/>
       <c r="AJ223" s="4"/>
     </row>
@@ -10075,7 +9993,7 @@
       <c r="AE224" s="23"/>
       <c r="AF224" s="23"/>
       <c r="AG224" s="23"/>
-      <c r="AH224" s="49"/>
+      <c r="AH224" s="44"/>
       <c r="AI224" s="22"/>
       <c r="AJ224" s="4"/>
     </row>
@@ -10112,7 +10030,7 @@
       <c r="AE225" s="23"/>
       <c r="AF225" s="23"/>
       <c r="AG225" s="23"/>
-      <c r="AH225" s="49"/>
+      <c r="AH225" s="44"/>
       <c r="AI225" s="22"/>
       <c r="AJ225" s="4"/>
     </row>
@@ -10149,7 +10067,7 @@
       <c r="AE226" s="23"/>
       <c r="AF226" s="23"/>
       <c r="AG226" s="23"/>
-      <c r="AH226" s="49"/>
+      <c r="AH226" s="44"/>
       <c r="AI226" s="22"/>
       <c r="AJ226" s="4"/>
     </row>
@@ -10186,7 +10104,7 @@
       <c r="AE227" s="23"/>
       <c r="AF227" s="23"/>
       <c r="AG227" s="23"/>
-      <c r="AH227" s="49"/>
+      <c r="AH227" s="44"/>
       <c r="AI227" s="22"/>
       <c r="AJ227" s="4"/>
     </row>
@@ -10223,7 +10141,7 @@
       <c r="AE228" s="23"/>
       <c r="AF228" s="23"/>
       <c r="AG228" s="23"/>
-      <c r="AH228" s="49"/>
+      <c r="AH228" s="44"/>
       <c r="AI228" s="22"/>
       <c r="AJ228" s="4"/>
     </row>
@@ -10260,7 +10178,7 @@
       <c r="AE229" s="23"/>
       <c r="AF229" s="23"/>
       <c r="AG229" s="23"/>
-      <c r="AH229" s="49"/>
+      <c r="AH229" s="44"/>
       <c r="AI229" s="22"/>
       <c r="AJ229" s="4"/>
     </row>
@@ -10297,7 +10215,7 @@
       <c r="AE230" s="23"/>
       <c r="AF230" s="23"/>
       <c r="AG230" s="23"/>
-      <c r="AH230" s="49"/>
+      <c r="AH230" s="44"/>
       <c r="AI230" s="22"/>
       <c r="AJ230" s="4"/>
     </row>
@@ -10334,7 +10252,7 @@
       <c r="AE231" s="23"/>
       <c r="AF231" s="23"/>
       <c r="AG231" s="23"/>
-      <c r="AH231" s="49"/>
+      <c r="AH231" s="44"/>
       <c r="AI231" s="22"/>
       <c r="AJ231" s="4"/>
     </row>
@@ -10371,7 +10289,7 @@
       <c r="AE232" s="23"/>
       <c r="AF232" s="23"/>
       <c r="AG232" s="23"/>
-      <c r="AH232" s="49"/>
+      <c r="AH232" s="44"/>
       <c r="AI232" s="22"/>
       <c r="AJ232" s="4"/>
     </row>
@@ -10408,7 +10326,7 @@
       <c r="AE233" s="23"/>
       <c r="AF233" s="23"/>
       <c r="AG233" s="23"/>
-      <c r="AH233" s="49"/>
+      <c r="AH233" s="44"/>
       <c r="AI233" s="22"/>
       <c r="AJ233" s="4"/>
     </row>
@@ -10445,7 +10363,7 @@
       <c r="AE234" s="23"/>
       <c r="AF234" s="23"/>
       <c r="AG234" s="23"/>
-      <c r="AH234" s="49"/>
+      <c r="AH234" s="44"/>
       <c r="AI234" s="22"/>
       <c r="AJ234" s="4"/>
     </row>
@@ -10482,7 +10400,7 @@
       <c r="AE235" s="23"/>
       <c r="AF235" s="23"/>
       <c r="AG235" s="23"/>
-      <c r="AH235" s="49"/>
+      <c r="AH235" s="44"/>
       <c r="AI235" s="22"/>
       <c r="AJ235" s="4"/>
     </row>
@@ -10519,7 +10437,7 @@
       <c r="AE236" s="23"/>
       <c r="AF236" s="23"/>
       <c r="AG236" s="23"/>
-      <c r="AH236" s="49"/>
+      <c r="AH236" s="44"/>
       <c r="AI236" s="22"/>
       <c r="AJ236" s="4"/>
     </row>
@@ -10556,7 +10474,7 @@
       <c r="AE237" s="23"/>
       <c r="AF237" s="23"/>
       <c r="AG237" s="23"/>
-      <c r="AH237" s="49"/>
+      <c r="AH237" s="44"/>
       <c r="AI237" s="22"/>
       <c r="AJ237" s="4"/>
     </row>
@@ -10593,7 +10511,7 @@
       <c r="AE238" s="23"/>
       <c r="AF238" s="23"/>
       <c r="AG238" s="23"/>
-      <c r="AH238" s="49"/>
+      <c r="AH238" s="44"/>
       <c r="AI238" s="22"/>
       <c r="AJ238" s="4"/>
     </row>
@@ -10630,7 +10548,7 @@
       <c r="AE239" s="23"/>
       <c r="AF239" s="23"/>
       <c r="AG239" s="23"/>
-      <c r="AH239" s="49"/>
+      <c r="AH239" s="44"/>
       <c r="AI239" s="22"/>
       <c r="AJ239" s="4"/>
     </row>
@@ -10667,7 +10585,7 @@
       <c r="AE240" s="23"/>
       <c r="AF240" s="23"/>
       <c r="AG240" s="23"/>
-      <c r="AH240" s="49"/>
+      <c r="AH240" s="44"/>
       <c r="AI240" s="22"/>
       <c r="AJ240" s="4"/>
     </row>
@@ -10704,7 +10622,7 @@
       <c r="AE241" s="23"/>
       <c r="AF241" s="23"/>
       <c r="AG241" s="23"/>
-      <c r="AH241" s="49"/>
+      <c r="AH241" s="44"/>
       <c r="AI241" s="22"/>
       <c r="AJ241" s="4"/>
     </row>
@@ -10741,7 +10659,7 @@
       <c r="AE242" s="23"/>
       <c r="AF242" s="23"/>
       <c r="AG242" s="23"/>
-      <c r="AH242" s="49"/>
+      <c r="AH242" s="44"/>
       <c r="AI242" s="22"/>
       <c r="AJ242" s="4"/>
     </row>
@@ -10778,7 +10696,7 @@
       <c r="AE243" s="23"/>
       <c r="AF243" s="23"/>
       <c r="AG243" s="23"/>
-      <c r="AH243" s="49"/>
+      <c r="AH243" s="44"/>
       <c r="AI243" s="22"/>
       <c r="AJ243" s="4"/>
     </row>
@@ -10815,7 +10733,7 @@
       <c r="AE244" s="23"/>
       <c r="AF244" s="23"/>
       <c r="AG244" s="23"/>
-      <c r="AH244" s="49"/>
+      <c r="AH244" s="44"/>
       <c r="AI244" s="22"/>
       <c r="AJ244" s="4"/>
     </row>
@@ -10852,7 +10770,7 @@
       <c r="AE245" s="23"/>
       <c r="AF245" s="23"/>
       <c r="AG245" s="23"/>
-      <c r="AH245" s="49"/>
+      <c r="AH245" s="44"/>
       <c r="AI245" s="22"/>
       <c r="AJ245" s="4"/>
     </row>
@@ -10889,7 +10807,7 @@
       <c r="AE246" s="23"/>
       <c r="AF246" s="23"/>
       <c r="AG246" s="23"/>
-      <c r="AH246" s="49"/>
+      <c r="AH246" s="44"/>
       <c r="AI246" s="22"/>
       <c r="AJ246" s="4"/>
     </row>
@@ -10926,7 +10844,7 @@
       <c r="AE247" s="23"/>
       <c r="AF247" s="23"/>
       <c r="AG247" s="23"/>
-      <c r="AH247" s="49"/>
+      <c r="AH247" s="44"/>
       <c r="AI247" s="22"/>
       <c r="AJ247" s="4"/>
     </row>
@@ -10963,7 +10881,7 @@
       <c r="AE248" s="23"/>
       <c r="AF248" s="23"/>
       <c r="AG248" s="23"/>
-      <c r="AH248" s="49"/>
+      <c r="AH248" s="44"/>
       <c r="AI248" s="22"/>
       <c r="AJ248" s="4"/>
     </row>
@@ -11000,7 +10918,7 @@
       <c r="AE249" s="23"/>
       <c r="AF249" s="23"/>
       <c r="AG249" s="23"/>
-      <c r="AH249" s="49"/>
+      <c r="AH249" s="44"/>
       <c r="AI249" s="22"/>
       <c r="AJ249" s="4"/>
     </row>
@@ -11037,7 +10955,7 @@
       <c r="AE250" s="23"/>
       <c r="AF250" s="23"/>
       <c r="AG250" s="23"/>
-      <c r="AH250" s="49"/>
+      <c r="AH250" s="44"/>
       <c r="AI250" s="22"/>
       <c r="AJ250" s="4"/>
     </row>
@@ -11074,7 +10992,7 @@
       <c r="AE251" s="23"/>
       <c r="AF251" s="23"/>
       <c r="AG251" s="23"/>
-      <c r="AH251" s="49"/>
+      <c r="AH251" s="44"/>
       <c r="AI251" s="22"/>
       <c r="AJ251" s="4"/>
     </row>
@@ -11111,7 +11029,7 @@
       <c r="AE252" s="23"/>
       <c r="AF252" s="23"/>
       <c r="AG252" s="23"/>
-      <c r="AH252" s="49"/>
+      <c r="AH252" s="44"/>
       <c r="AI252" s="22"/>
       <c r="AJ252" s="4"/>
     </row>
@@ -11148,7 +11066,7 @@
       <c r="AE253" s="23"/>
       <c r="AF253" s="23"/>
       <c r="AG253" s="23"/>
-      <c r="AH253" s="49"/>
+      <c r="AH253" s="44"/>
       <c r="AI253" s="22"/>
       <c r="AJ253" s="4"/>
     </row>
@@ -11185,7 +11103,7 @@
       <c r="AE254" s="23"/>
       <c r="AF254" s="23"/>
       <c r="AG254" s="23"/>
-      <c r="AH254" s="49"/>
+      <c r="AH254" s="44"/>
       <c r="AI254" s="22"/>
       <c r="AJ254" s="4"/>
     </row>
@@ -11222,7 +11140,7 @@
       <c r="AE255" s="23"/>
       <c r="AF255" s="23"/>
       <c r="AG255" s="23"/>
-      <c r="AH255" s="49"/>
+      <c r="AH255" s="44"/>
       <c r="AI255" s="22"/>
       <c r="AJ255" s="4"/>
     </row>
@@ -11259,7 +11177,7 @@
       <c r="AE256" s="23"/>
       <c r="AF256" s="23"/>
       <c r="AG256" s="23"/>
-      <c r="AH256" s="49"/>
+      <c r="AH256" s="44"/>
       <c r="AI256" s="22"/>
       <c r="AJ256" s="4"/>
     </row>
@@ -11296,7 +11214,7 @@
       <c r="AE257" s="23"/>
       <c r="AF257" s="23"/>
       <c r="AG257" s="23"/>
-      <c r="AH257" s="49"/>
+      <c r="AH257" s="44"/>
       <c r="AI257" s="22"/>
       <c r="AJ257" s="4"/>
     </row>
@@ -11333,7 +11251,7 @@
       <c r="AE258" s="23"/>
       <c r="AF258" s="23"/>
       <c r="AG258" s="23"/>
-      <c r="AH258" s="49"/>
+      <c r="AH258" s="44"/>
       <c r="AI258" s="22"/>
       <c r="AJ258" s="4"/>
     </row>
@@ -11370,7 +11288,7 @@
       <c r="AE259" s="23"/>
       <c r="AF259" s="23"/>
       <c r="AG259" s="23"/>
-      <c r="AH259" s="49"/>
+      <c r="AH259" s="44"/>
       <c r="AI259" s="22"/>
       <c r="AJ259" s="4"/>
     </row>
@@ -11407,7 +11325,7 @@
       <c r="AE260" s="23"/>
       <c r="AF260" s="23"/>
       <c r="AG260" s="23"/>
-      <c r="AH260" s="49"/>
+      <c r="AH260" s="44"/>
       <c r="AI260" s="22"/>
       <c r="AJ260" s="4"/>
     </row>
@@ -11444,7 +11362,7 @@
       <c r="AE261" s="23"/>
       <c r="AF261" s="23"/>
       <c r="AG261" s="23"/>
-      <c r="AH261" s="49"/>
+      <c r="AH261" s="44"/>
       <c r="AI261" s="22"/>
       <c r="AJ261" s="4"/>
     </row>
@@ -11481,7 +11399,7 @@
       <c r="AE262" s="23"/>
       <c r="AF262" s="23"/>
       <c r="AG262" s="23"/>
-      <c r="AH262" s="49"/>
+      <c r="AH262" s="44"/>
       <c r="AI262" s="22"/>
       <c r="AJ262" s="4"/>
     </row>
@@ -11518,7 +11436,7 @@
       <c r="AE263" s="23"/>
       <c r="AF263" s="23"/>
       <c r="AG263" s="23"/>
-      <c r="AH263" s="49"/>
+      <c r="AH263" s="44"/>
       <c r="AI263" s="22"/>
       <c r="AJ263" s="4"/>
     </row>
@@ -11555,7 +11473,7 @@
       <c r="AE264" s="23"/>
       <c r="AF264" s="23"/>
       <c r="AG264" s="23"/>
-      <c r="AH264" s="49"/>
+      <c r="AH264" s="44"/>
       <c r="AI264" s="22"/>
       <c r="AJ264" s="4"/>
     </row>
@@ -11592,7 +11510,7 @@
       <c r="AE265" s="23"/>
       <c r="AF265" s="23"/>
       <c r="AG265" s="23"/>
-      <c r="AH265" s="49"/>
+      <c r="AH265" s="44"/>
       <c r="AI265" s="22"/>
       <c r="AJ265" s="4"/>
     </row>
@@ -11629,7 +11547,7 @@
       <c r="AE266" s="23"/>
       <c r="AF266" s="23"/>
       <c r="AG266" s="23"/>
-      <c r="AH266" s="49"/>
+      <c r="AH266" s="44"/>
       <c r="AI266" s="22"/>
       <c r="AJ266" s="4"/>
     </row>
@@ -11666,7 +11584,7 @@
       <c r="AE267" s="23"/>
       <c r="AF267" s="23"/>
       <c r="AG267" s="23"/>
-      <c r="AH267" s="49"/>
+      <c r="AH267" s="44"/>
       <c r="AI267" s="22"/>
       <c r="AJ267" s="4"/>
     </row>
@@ -11703,7 +11621,7 @@
       <c r="AE268" s="23"/>
       <c r="AF268" s="23"/>
       <c r="AG268" s="23"/>
-      <c r="AH268" s="49"/>
+      <c r="AH268" s="44"/>
       <c r="AI268" s="22"/>
       <c r="AJ268" s="4"/>
     </row>
@@ -11740,7 +11658,7 @@
       <c r="AE269" s="23"/>
       <c r="AF269" s="23"/>
       <c r="AG269" s="23"/>
-      <c r="AH269" s="49"/>
+      <c r="AH269" s="44"/>
       <c r="AI269" s="22"/>
       <c r="AJ269" s="4"/>
     </row>
@@ -11777,7 +11695,7 @@
       <c r="AE270" s="23"/>
       <c r="AF270" s="23"/>
       <c r="AG270" s="23"/>
-      <c r="AH270" s="49"/>
+      <c r="AH270" s="44"/>
       <c r="AI270" s="22"/>
       <c r="AJ270" s="4"/>
     </row>
@@ -11814,7 +11732,7 @@
       <c r="AE271" s="23"/>
       <c r="AF271" s="23"/>
       <c r="AG271" s="23"/>
-      <c r="AH271" s="49"/>
+      <c r="AH271" s="44"/>
       <c r="AI271" s="22"/>
       <c r="AJ271" s="4"/>
     </row>
@@ -11851,7 +11769,7 @@
       <c r="AE272" s="23"/>
       <c r="AF272" s="23"/>
       <c r="AG272" s="23"/>
-      <c r="AH272" s="49"/>
+      <c r="AH272" s="44"/>
       <c r="AI272" s="22"/>
       <c r="AJ272" s="4"/>
     </row>
@@ -11888,7 +11806,7 @@
       <c r="AE273" s="23"/>
       <c r="AF273" s="23"/>
       <c r="AG273" s="23"/>
-      <c r="AH273" s="49"/>
+      <c r="AH273" s="44"/>
       <c r="AI273" s="22"/>
       <c r="AJ273" s="4"/>
     </row>
@@ -11925,7 +11843,7 @@
       <c r="AE274" s="23"/>
       <c r="AF274" s="23"/>
       <c r="AG274" s="23"/>
-      <c r="AH274" s="49"/>
+      <c r="AH274" s="44"/>
       <c r="AI274" s="22"/>
       <c r="AJ274" s="4"/>
     </row>
@@ -11962,7 +11880,7 @@
       <c r="AE275" s="23"/>
       <c r="AF275" s="23"/>
       <c r="AG275" s="23"/>
-      <c r="AH275" s="49"/>
+      <c r="AH275" s="44"/>
       <c r="AI275" s="22"/>
       <c r="AJ275" s="4"/>
     </row>
@@ -11999,7 +11917,7 @@
       <c r="AE276" s="23"/>
       <c r="AF276" s="23"/>
       <c r="AG276" s="23"/>
-      <c r="AH276" s="49"/>
+      <c r="AH276" s="44"/>
       <c r="AI276" s="22"/>
       <c r="AJ276" s="4"/>
     </row>
@@ -12036,7 +11954,7 @@
       <c r="AE277" s="23"/>
       <c r="AF277" s="23"/>
       <c r="AG277" s="23"/>
-      <c r="AH277" s="49"/>
+      <c r="AH277" s="44"/>
       <c r="AI277" s="22"/>
       <c r="AJ277" s="4"/>
     </row>
@@ -12073,7 +11991,7 @@
       <c r="AE278" s="23"/>
       <c r="AF278" s="23"/>
       <c r="AG278" s="23"/>
-      <c r="AH278" s="49"/>
+      <c r="AH278" s="44"/>
       <c r="AI278" s="22"/>
       <c r="AJ278" s="4"/>
     </row>
@@ -12110,7 +12028,7 @@
       <c r="AE279" s="23"/>
       <c r="AF279" s="23"/>
       <c r="AG279" s="23"/>
-      <c r="AH279" s="49"/>
+      <c r="AH279" s="44"/>
       <c r="AI279" s="22"/>
       <c r="AJ279" s="4"/>
     </row>
@@ -12147,7 +12065,7 @@
       <c r="AE280" s="23"/>
       <c r="AF280" s="23"/>
       <c r="AG280" s="23"/>
-      <c r="AH280" s="49"/>
+      <c r="AH280" s="44"/>
       <c r="AI280" s="22"/>
       <c r="AJ280" s="4"/>
     </row>
@@ -12184,7 +12102,7 @@
       <c r="AE281" s="16"/>
       <c r="AF281" s="16"/>
       <c r="AG281" s="16"/>
-      <c r="AH281" s="50"/>
+      <c r="AH281" s="45"/>
       <c r="AI281" s="16"/>
       <c r="AJ281" s="4"/>
     </row>
@@ -12220,7 +12138,7 @@
       <c r="AE282" s="17"/>
       <c r="AF282" s="17"/>
       <c r="AG282" s="17"/>
-      <c r="AH282" s="51"/>
+      <c r="AH282" s="46"/>
       <c r="AI282" s="17"/>
       <c r="AJ282" s="13"/>
     </row>
@@ -12366,10 +12284,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B5402-FCF4-994E-9ED1-C9AE16A3C5F5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12380,7 +12299,7 @@
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="35.1640625" customWidth="1"/>
-    <col min="8" max="9" width="23.83203125" style="64" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="58" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
@@ -12388,7 +12307,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="53.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -12409,10 +12328,10 @@
       <c r="G1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="57" t="s">
         <v>94</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -12421,10 +12340,10 @@
       <c r="K1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="42" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12433,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>16</v>
@@ -12450,10 +12369,10 @@
       <c r="G2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>1</v>
       </c>
       <c r="J2" s="31" t="s">
@@ -12462,7 +12381,7 @@
       <c r="K2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="31" t="s">
@@ -12474,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>16</v>
@@ -12491,10 +12410,10 @@
       <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="48">
         <v>2</v>
       </c>
       <c r="J3" s="35" t="s">
@@ -12503,7 +12422,7 @@
       <c r="K3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="43" t="s">
         <v>61</v>
       </c>
       <c r="M3" s="31" t="s">
@@ -12532,10 +12451,10 @@
       <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="48">
         <v>3</v>
       </c>
       <c r="J4" s="35" t="s">
@@ -12544,14 +12463,14 @@
       <c r="K4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>61</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -12573,10 +12492,10 @@
       <c r="G5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="48">
         <v>1</v>
       </c>
       <c r="J5" s="31" t="s">
@@ -12585,19 +12504,19 @@
       <c r="K5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="43" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="30">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>16</v>
@@ -12614,10 +12533,10 @@
       <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="48">
         <v>2</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -12626,14 +12545,14 @@
       <c r="K6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="43" t="s">
         <v>87</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -12655,10 +12574,10 @@
       <c r="G7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="48">
         <v>4</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -12667,14 +12586,14 @@
       <c r="K7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="43" t="s">
         <v>88</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12696,10 +12615,10 @@
       <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="48">
         <v>3</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -12708,19 +12627,19 @@
       <c r="K8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="43" t="s">
         <v>89</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="126" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="35">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>52</v>
@@ -12737,10 +12656,10 @@
       <c r="G9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="48">
         <v>6040191600</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="48">
         <v>4</v>
       </c>
       <c r="J9" s="35" t="s">
@@ -12749,14 +12668,14 @@
       <c r="K9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="43" t="s">
         <v>90</v>
       </c>
       <c r="M9" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12778,10 +12697,10 @@
       <c r="G10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="48">
         <v>13766800116.124063</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="48">
         <v>3</v>
       </c>
       <c r="J10" s="35" t="s">
@@ -12790,10 +12709,10 @@
       <c r="K10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="47" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12819,10 +12738,10 @@
       <c r="G11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="48">
         <v>158201819507</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="48">
         <v>3</v>
       </c>
       <c r="J11" s="35" t="s">
@@ -12831,19 +12750,19 @@
       <c r="K11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="43" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="398" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="398" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="35">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>52</v>
@@ -12860,10 +12779,10 @@
       <c r="G12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="48">
         <v>6040191600</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="48">
         <v>4</v>
       </c>
       <c r="J12" s="35" t="s">
@@ -12872,19 +12791,19 @@
       <c r="K12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="43" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="35">
-        <v>905</v>
+        <v>711</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>56</v>
@@ -12901,10 +12820,10 @@
       <c r="G13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="48">
         <v>13766800116.124063</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="48">
         <v>3</v>
       </c>
       <c r="J13" s="35" t="s">
@@ -12913,14 +12832,21 @@
       <c r="K13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="47" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M13" xr:uid="{142B5402-FCF4-994E-9ED1-C9AE16A3C5F5}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="2024-12-31"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hito " sqref="D1" xr:uid="{E2676364-1EA5-C443-AB55-64C21102D8D7}"/>
@@ -12948,7 +12874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98665391-3A57-6045-90BD-AC2D41CA4B0C}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -12986,58 +12912,58 @@
       <c r="G1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="52">
         <f>+VLOOKUP(A2,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C2" s="56">
+        <v>711</v>
+      </c>
+      <c r="C2" s="51">
         <v>200340</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="53">
         <v>1</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2">
         <v>2025</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13045,38 +12971,38 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="52">
         <f>+VLOOKUP(A3,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C3" s="56">
+        <v>711</v>
+      </c>
+      <c r="C3" s="51">
         <v>200340</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="53">
         <v>1</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3">
         <v>2025</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13084,38 +13010,38 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="52">
         <f>+VLOOKUP(A4,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C4" s="56">
+        <v>711</v>
+      </c>
+      <c r="C4" s="51">
         <v>200340</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="53">
         <v>1</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4">
         <v>2025</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13123,38 +13049,38 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="52">
         <f>+VLOOKUP(A5,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C5" s="56">
+        <v>711</v>
+      </c>
+      <c r="C5" s="51">
         <v>200340</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="53">
         <v>1</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5">
         <v>7</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5">
         <v>2025</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13162,38 +13088,38 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="52">
         <f>+VLOOKUP(A6,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C6" s="56">
+        <v>711</v>
+      </c>
+      <c r="C6" s="51">
         <v>200340</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="53">
         <v>1</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6">
         <v>2025</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13201,38 +13127,38 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>+VLOOKUP(A7,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C7" s="56">
+        <v>711</v>
+      </c>
+      <c r="C7" s="51">
         <v>200340</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="53">
         <v>1</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7">
         <v>7</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7">
         <v>2025</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13240,38 +13166,38 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="52">
         <f>+VLOOKUP(A8,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C8" s="56">
+        <v>711</v>
+      </c>
+      <c r="C8" s="51">
         <v>200340</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="53">
         <v>1</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8">
         <v>2025</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13279,38 +13205,38 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="52">
         <f>+VLOOKUP(A9,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C9" s="56">
+        <v>711</v>
+      </c>
+      <c r="C9" s="51">
         <v>200340</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="53">
         <v>1</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9">
         <v>2025</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13318,38 +13244,38 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="52">
         <f>+VLOOKUP(A10,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C10" s="56">
+        <v>711</v>
+      </c>
+      <c r="C10" s="51">
         <v>200340</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="53">
         <v>1</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10">
         <v>2025</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13357,38 +13283,38 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="52">
         <f>+VLOOKUP(A11,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C11" s="56">
+        <v>711</v>
+      </c>
+      <c r="C11" s="51">
         <v>200340</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="53">
         <v>1</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11">
         <v>7</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11">
         <v>2025</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13396,116 +13322,116 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>+VLOOKUP(A12,main!$A:$B,2,FALSE)</f>
         <v>741</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="51">
         <v>200340</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="53">
         <v>1</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12">
         <v>2025</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="71">
+      <c r="A13" s="65">
         <v>1</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="52">
         <f>+VLOOKUP(A13,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C13" s="56">
+        <v>711</v>
+      </c>
+      <c r="C13" s="51">
         <v>200340</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="53">
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13">
         <v>7</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13">
         <v>2025</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+      <c r="A14" s="65">
         <v>2</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="52">
         <f>+VLOOKUP(A14,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C14" s="56">
+        <v>711</v>
+      </c>
+      <c r="C14" s="51">
         <v>200340</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="53">
         <v>1</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14">
         <v>2025</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13513,389 +13439,389 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="52">
         <f>+VLOOKUP(A15,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C15" s="56">
+        <v>711</v>
+      </c>
+      <c r="C15" s="51">
         <v>200340</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="53">
         <v>1</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15">
         <v>7</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15">
         <v>2025</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
+      <c r="A16" s="65">
         <v>1</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="52">
         <f>+VLOOKUP(A16,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C16" s="56">
+        <v>711</v>
+      </c>
+      <c r="C16" s="51">
         <v>200340</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="53">
         <v>1</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16">
         <v>7</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16">
         <v>2025</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
+      <c r="A17" s="65">
         <v>2</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>+VLOOKUP(A17,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C17" s="56">
+        <v>711</v>
+      </c>
+      <c r="C17" s="51">
         <v>200340</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="53">
         <v>1</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17">
         <v>7</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17">
         <v>2025</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="71">
+      <c r="A18" s="65">
         <v>1</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="52">
         <f>+VLOOKUP(A18,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C18" s="56">
+        <v>711</v>
+      </c>
+      <c r="C18" s="51">
         <v>200340</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="53">
         <v>1</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18">
         <v>2025</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="71">
+      <c r="A19" s="65">
         <v>2</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="52">
         <f>+VLOOKUP(A19,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C19" s="56">
+        <v>711</v>
+      </c>
+      <c r="C19" s="51">
         <v>200340</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="53">
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19">
         <v>7</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19">
         <v>2025</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="71">
+      <c r="A20" s="65">
         <v>1</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="52">
         <f>+VLOOKUP(A20,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C20" s="56">
+        <v>711</v>
+      </c>
+      <c r="C20" s="51">
         <v>200340</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="53">
         <v>158201819507</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="53">
         <v>1</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20">
         <v>7</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20">
         <v>2025</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
+      <c r="A21" s="65">
         <v>2</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="52">
         <f>+VLOOKUP(A21,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C21" s="65">
+        <v>711</v>
+      </c>
+      <c r="C21" s="59">
         <v>200340</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="60">
         <v>158201819507</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="53">
         <v>1</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="63">
         <v>7</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="63">
         <v>2025</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="71">
+      <c r="A22" s="65">
         <v>1</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>+VLOOKUP(A22,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C22" s="65">
+        <v>711</v>
+      </c>
+      <c r="C22" s="59">
         <v>200340</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="60">
         <v>158201819507</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="53">
         <v>1</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="63">
         <v>7</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="63">
         <v>2025</v>
       </c>
-      <c r="L22" s="70" t="s">
+      <c r="L22" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="71">
+      <c r="A23" s="65">
         <v>2</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="52">
         <f>+VLOOKUP(A23,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C23" s="65">
+        <v>711</v>
+      </c>
+      <c r="C23" s="59">
         <v>200340</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="60">
         <v>158201819507</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="53">
         <v>1</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="63">
         <v>7</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="63">
         <v>2025</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="71">
+      <c r="A24" s="65">
         <v>1</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="52">
         <f>+VLOOKUP(A24,main!$A:$B,2,FALSE)</f>
-        <v>741</v>
-      </c>
-      <c r="C24" s="65">
+        <v>711</v>
+      </c>
+      <c r="C24" s="59">
         <v>200340</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="60">
         <v>158201819507</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="53">
         <v>1</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="63">
         <v>7</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="63">
         <v>2025</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="64" t="s">
         <v>62</v>
       </c>
     </row>
